--- a/November'21/25.11.2021/Hello Daffodils Bank Statement November-2021.xlsx
+++ b/November'21/25.11.2021/Hello Daffodils Bank Statement November-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -85,7 +85,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -94,7 +94,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Robiul</t>
@@ -109,7 +109,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -118,7 +118,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mamun</t>
@@ -133,7 +133,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -142,7 +142,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Rockir garir lic sara @gatise</t>
@@ -338,7 +338,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="242">
   <si>
     <t>Bank Guarantee</t>
   </si>
@@ -721,9 +721,6 @@
     <t>31.08.2021</t>
   </si>
   <si>
-    <t>Advance House Rent</t>
-  </si>
-  <si>
     <t>Month</t>
   </si>
   <si>
@@ -1060,13 +1057,13 @@
     <t>24.11.2021</t>
   </si>
   <si>
-    <t>Date:24.11.2021</t>
-  </si>
-  <si>
-    <t>Date:26.11.2021</t>
-  </si>
-  <si>
     <t>25.11.2021</t>
+  </si>
+  <si>
+    <t>Date:25.11.2021</t>
+  </si>
+  <si>
+    <t>Date:27.11.2021</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1074,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1446,19 +1443,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -1552,7 +1536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -2378,6 +2362,19 @@
     <border>
       <left/>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -2395,7 +2392,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="434">
+  <cellXfs count="436">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3043,9 +3040,6 @@
     <xf numFmtId="2" fontId="7" fillId="15" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="15" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3101,9 +3095,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3392,6 +3383,39 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3410,18 +3434,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3443,24 +3455,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3531,6 +3525,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3658,9 +3664,6 @@
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4121,70 +4124,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="344" t="s">
+      <c r="A1" s="353" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="344"/>
-      <c r="C1" s="344"/>
-      <c r="D1" s="344"/>
-      <c r="E1" s="344"/>
-      <c r="F1" s="344"/>
-      <c r="G1" s="344"/>
-      <c r="H1" s="344"/>
-      <c r="I1" s="344"/>
-      <c r="J1" s="344"/>
-      <c r="K1" s="344"/>
-      <c r="L1" s="344"/>
-      <c r="M1" s="344"/>
-      <c r="N1" s="344"/>
-      <c r="O1" s="344"/>
-      <c r="P1" s="344"/>
-      <c r="Q1" s="344"/>
-      <c r="R1" s="344"/>
+      <c r="B1" s="353"/>
+      <c r="C1" s="353"/>
+      <c r="D1" s="353"/>
+      <c r="E1" s="353"/>
+      <c r="F1" s="353"/>
+      <c r="G1" s="353"/>
+      <c r="H1" s="353"/>
+      <c r="I1" s="353"/>
+      <c r="J1" s="353"/>
+      <c r="K1" s="353"/>
+      <c r="L1" s="353"/>
+      <c r="M1" s="353"/>
+      <c r="N1" s="353"/>
+      <c r="O1" s="353"/>
+      <c r="P1" s="353"/>
+      <c r="Q1" s="353"/>
+      <c r="R1" s="353"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="345" t="s">
+      <c r="A2" s="354" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="345"/>
-      <c r="C2" s="345"/>
-      <c r="D2" s="345"/>
-      <c r="E2" s="345"/>
-      <c r="F2" s="345"/>
-      <c r="G2" s="345"/>
-      <c r="H2" s="345"/>
-      <c r="I2" s="345"/>
-      <c r="J2" s="345"/>
-      <c r="K2" s="345"/>
-      <c r="L2" s="345"/>
-      <c r="M2" s="345"/>
-      <c r="N2" s="345"/>
-      <c r="O2" s="345"/>
-      <c r="P2" s="345"/>
-      <c r="Q2" s="345"/>
-      <c r="R2" s="345"/>
+      <c r="B2" s="354"/>
+      <c r="C2" s="354"/>
+      <c r="D2" s="354"/>
+      <c r="E2" s="354"/>
+      <c r="F2" s="354"/>
+      <c r="G2" s="354"/>
+      <c r="H2" s="354"/>
+      <c r="I2" s="354"/>
+      <c r="J2" s="354"/>
+      <c r="K2" s="354"/>
+      <c r="L2" s="354"/>
+      <c r="M2" s="354"/>
+      <c r="N2" s="354"/>
+      <c r="O2" s="354"/>
+      <c r="P2" s="354"/>
+      <c r="Q2" s="354"/>
+      <c r="R2" s="354"/>
     </row>
     <row r="3" spans="1:25" s="67" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="356" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="357"/>
-      <c r="C3" s="357"/>
-      <c r="D3" s="357"/>
-      <c r="E3" s="357"/>
-      <c r="F3" s="357"/>
-      <c r="G3" s="357"/>
-      <c r="H3" s="357"/>
-      <c r="I3" s="357"/>
-      <c r="J3" s="357"/>
-      <c r="K3" s="357"/>
-      <c r="L3" s="357"/>
-      <c r="M3" s="357"/>
-      <c r="N3" s="357"/>
-      <c r="O3" s="357"/>
-      <c r="P3" s="357"/>
-      <c r="Q3" s="357"/>
-      <c r="R3" s="358"/>
+      <c r="A3" s="361" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="362"/>
+      <c r="C3" s="362"/>
+      <c r="D3" s="362"/>
+      <c r="E3" s="362"/>
+      <c r="F3" s="362"/>
+      <c r="G3" s="362"/>
+      <c r="H3" s="362"/>
+      <c r="I3" s="362"/>
+      <c r="J3" s="362"/>
+      <c r="K3" s="362"/>
+      <c r="L3" s="362"/>
+      <c r="M3" s="362"/>
+      <c r="N3" s="362"/>
+      <c r="O3" s="362"/>
+      <c r="P3" s="362"/>
+      <c r="Q3" s="362"/>
+      <c r="R3" s="363"/>
       <c r="T3" s="68"/>
       <c r="U3" s="69"/>
       <c r="V3" s="69"/>
@@ -4193,56 +4196,56 @@
       <c r="Y3" s="70"/>
     </row>
     <row r="4" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="346" t="s">
+      <c r="A4" s="355" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="348" t="s">
+      <c r="B4" s="357" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="348" t="s">
+      <c r="C4" s="357" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="350" t="s">
+      <c r="D4" s="351" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="350" t="s">
+      <c r="E4" s="351" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="350" t="s">
+      <c r="F4" s="351" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="350" t="s">
+      <c r="G4" s="351" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="350" t="s">
+      <c r="H4" s="351" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="350" t="s">
+      <c r="I4" s="351" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="350" t="s">
+      <c r="J4" s="351" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="359" t="s">
+      <c r="K4" s="364" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="352" t="s">
+      <c r="L4" s="343" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="361" t="s">
+      <c r="M4" s="345" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="363" t="s">
+      <c r="N4" s="347" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="365" t="s">
+      <c r="O4" s="349" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="352" t="s">
+      <c r="P4" s="343" t="s">
         <v>121</v>
       </c>
-      <c r="Q4" s="354" t="s">
-        <v>176</v>
+      <c r="Q4" s="359" t="s">
+        <v>175</v>
       </c>
       <c r="R4" s="148" t="s">
         <v>28</v>
@@ -4254,23 +4257,23 @@
       <c r="X4" s="69"/>
     </row>
     <row r="5" spans="1:25" s="70" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="347"/>
-      <c r="B5" s="349"/>
-      <c r="C5" s="349"/>
-      <c r="D5" s="351"/>
-      <c r="E5" s="351"/>
-      <c r="F5" s="351"/>
-      <c r="G5" s="351"/>
-      <c r="H5" s="351"/>
-      <c r="I5" s="351"/>
-      <c r="J5" s="351"/>
-      <c r="K5" s="360"/>
-      <c r="L5" s="353"/>
-      <c r="M5" s="362"/>
-      <c r="N5" s="364"/>
-      <c r="O5" s="366"/>
-      <c r="P5" s="353"/>
-      <c r="Q5" s="355"/>
+      <c r="A5" s="356"/>
+      <c r="B5" s="358"/>
+      <c r="C5" s="358"/>
+      <c r="D5" s="352"/>
+      <c r="E5" s="352"/>
+      <c r="F5" s="352"/>
+      <c r="G5" s="352"/>
+      <c r="H5" s="352"/>
+      <c r="I5" s="352"/>
+      <c r="J5" s="352"/>
+      <c r="K5" s="365"/>
+      <c r="L5" s="344"/>
+      <c r="M5" s="346"/>
+      <c r="N5" s="348"/>
+      <c r="O5" s="350"/>
+      <c r="P5" s="344"/>
+      <c r="Q5" s="360"/>
       <c r="R5" s="149" t="s">
         <v>29</v>
       </c>
@@ -4283,14 +4286,14 @@
     </row>
     <row r="6" spans="1:25" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="157" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B6" s="158"/>
       <c r="C6" s="159"/>
       <c r="D6" s="159"/>
       <c r="E6" s="159"/>
       <c r="F6" s="159"/>
-      <c r="G6" s="252">
+      <c r="G6" s="250">
         <v>813</v>
       </c>
       <c r="H6" s="159"/>
@@ -4316,14 +4319,14 @@
     </row>
     <row r="7" spans="1:25" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="157" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B7" s="158"/>
       <c r="C7" s="159"/>
       <c r="D7" s="159"/>
       <c r="E7" s="159"/>
       <c r="F7" s="159"/>
-      <c r="G7" s="252">
+      <c r="G7" s="250">
         <v>908</v>
       </c>
       <c r="H7" s="159"/>
@@ -4349,14 +4352,14 @@
     </row>
     <row r="8" spans="1:25" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="157" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B8" s="161"/>
       <c r="C8" s="162"/>
       <c r="D8" s="162"/>
       <c r="E8" s="162"/>
       <c r="F8" s="162"/>
-      <c r="G8" s="253">
+      <c r="G8" s="251">
         <v>660</v>
       </c>
       <c r="H8" s="162"/>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="9" spans="1:25" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="157" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B9" s="161"/>
       <c r="C9" s="162">
@@ -4393,7 +4396,7 @@
       <c r="D9" s="162"/>
       <c r="E9" s="162"/>
       <c r="F9" s="162"/>
-      <c r="G9" s="253">
+      <c r="G9" s="251">
         <v>1057</v>
       </c>
       <c r="H9" s="162"/>
@@ -4419,7 +4422,7 @@
     </row>
     <row r="10" spans="1:25" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="157" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" s="161"/>
       <c r="C10" s="162">
@@ -4428,7 +4431,7 @@
       <c r="D10" s="162"/>
       <c r="E10" s="162"/>
       <c r="F10" s="162"/>
-      <c r="G10" s="253">
+      <c r="G10" s="251">
         <v>1609</v>
       </c>
       <c r="H10" s="162"/>
@@ -4454,14 +4457,14 @@
     </row>
     <row r="11" spans="1:25" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="157" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B11" s="161"/>
       <c r="C11" s="162"/>
       <c r="D11" s="162"/>
       <c r="E11" s="162"/>
       <c r="F11" s="162"/>
-      <c r="G11" s="253">
+      <c r="G11" s="251">
         <v>1141</v>
       </c>
       <c r="H11" s="162"/>
@@ -4487,14 +4490,14 @@
     </row>
     <row r="12" spans="1:25" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="157" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B12" s="161"/>
       <c r="C12" s="162"/>
       <c r="D12" s="162"/>
       <c r="E12" s="162"/>
       <c r="F12" s="162"/>
-      <c r="G12" s="253">
+      <c r="G12" s="251">
         <v>325</v>
       </c>
       <c r="H12" s="162"/>
@@ -4520,14 +4523,14 @@
     </row>
     <row r="13" spans="1:25" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="157" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B13" s="161"/>
       <c r="C13" s="162"/>
       <c r="D13" s="162"/>
       <c r="E13" s="162"/>
       <c r="F13" s="162"/>
-      <c r="G13" s="253">
+      <c r="G13" s="251">
         <v>1040</v>
       </c>
       <c r="H13" s="162"/>
@@ -4553,14 +4556,14 @@
     </row>
     <row r="14" spans="1:25" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="157" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B14" s="161"/>
       <c r="C14" s="162"/>
       <c r="D14" s="162"/>
       <c r="E14" s="162"/>
       <c r="F14" s="162"/>
-      <c r="G14" s="253">
+      <c r="G14" s="251">
         <v>537</v>
       </c>
       <c r="H14" s="162"/>
@@ -4586,14 +4589,14 @@
     </row>
     <row r="15" spans="1:25" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="157" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B15" s="161"/>
       <c r="C15" s="162"/>
       <c r="D15" s="162"/>
       <c r="E15" s="162"/>
       <c r="F15" s="162"/>
-      <c r="G15" s="253">
+      <c r="G15" s="251">
         <v>1081</v>
       </c>
       <c r="H15" s="162"/>
@@ -4619,14 +4622,14 @@
     </row>
     <row r="16" spans="1:25" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="157" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B16" s="161"/>
       <c r="C16" s="162"/>
       <c r="D16" s="162"/>
       <c r="E16" s="162"/>
       <c r="F16" s="162"/>
-      <c r="G16" s="253">
+      <c r="G16" s="251">
         <v>1070</v>
       </c>
       <c r="H16" s="162"/>
@@ -4652,14 +4655,14 @@
     </row>
     <row r="17" spans="1:24" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="157" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B17" s="161"/>
       <c r="C17" s="162"/>
       <c r="D17" s="162"/>
       <c r="E17" s="162"/>
       <c r="F17" s="162"/>
-      <c r="G17" s="253">
+      <c r="G17" s="251">
         <v>541</v>
       </c>
       <c r="H17" s="162"/>
@@ -4685,14 +4688,14 @@
     </row>
     <row r="18" spans="1:24" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="157" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B18" s="161"/>
       <c r="C18" s="162"/>
       <c r="D18" s="162"/>
       <c r="E18" s="162"/>
       <c r="F18" s="162"/>
-      <c r="G18" s="253">
+      <c r="G18" s="251">
         <v>229</v>
       </c>
       <c r="H18" s="162"/>
@@ -4718,7 +4721,7 @@
     </row>
     <row r="19" spans="1:24" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="157" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B19" s="161"/>
       <c r="C19" s="162">
@@ -4727,7 +4730,7 @@
       <c r="D19" s="162"/>
       <c r="E19" s="162"/>
       <c r="F19" s="162"/>
-      <c r="G19" s="253">
+      <c r="G19" s="251">
         <v>1217</v>
       </c>
       <c r="H19" s="162"/>
@@ -4755,14 +4758,14 @@
     </row>
     <row r="20" spans="1:24" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="157" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B20" s="161"/>
       <c r="C20" s="162"/>
       <c r="D20" s="162"/>
       <c r="E20" s="162"/>
       <c r="F20" s="162"/>
-      <c r="G20" s="253">
+      <c r="G20" s="251">
         <v>1346</v>
       </c>
       <c r="H20" s="162"/>
@@ -4788,14 +4791,14 @@
     </row>
     <row r="21" spans="1:24" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="157" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B21" s="161"/>
       <c r="C21" s="162"/>
       <c r="D21" s="162"/>
       <c r="E21" s="162"/>
       <c r="F21" s="162"/>
-      <c r="G21" s="253">
+      <c r="G21" s="251">
         <v>398</v>
       </c>
       <c r="H21" s="162"/>
@@ -4817,14 +4820,14 @@
     </row>
     <row r="22" spans="1:24" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="157" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B22" s="161"/>
       <c r="C22" s="162"/>
       <c r="D22" s="162"/>
       <c r="E22" s="162"/>
       <c r="F22" s="162"/>
-      <c r="G22" s="253">
+      <c r="G22" s="251">
         <v>1060</v>
       </c>
       <c r="H22" s="162"/>
@@ -4846,14 +4849,14 @@
     </row>
     <row r="23" spans="1:24" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="157" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B23" s="161"/>
       <c r="C23" s="162"/>
       <c r="D23" s="162"/>
       <c r="E23" s="162"/>
       <c r="F23" s="162"/>
-      <c r="G23" s="253">
+      <c r="G23" s="251">
         <v>583</v>
       </c>
       <c r="H23" s="162"/>
@@ -4875,7 +4878,7 @@
     </row>
     <row r="24" spans="1:24" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="157" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24" s="161"/>
       <c r="C24" s="162">
@@ -4884,7 +4887,7 @@
       <c r="D24" s="162"/>
       <c r="E24" s="162"/>
       <c r="F24" s="162"/>
-      <c r="G24" s="253">
+      <c r="G24" s="251">
         <v>505</v>
       </c>
       <c r="H24" s="162"/>
@@ -4909,7 +4912,7 @@
     </row>
     <row r="25" spans="1:24" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="157" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B25" s="161"/>
       <c r="C25" s="162"/>
@@ -4918,7 +4921,7 @@
         <v>90</v>
       </c>
       <c r="F25" s="162"/>
-      <c r="G25" s="253">
+      <c r="G25" s="251">
         <v>1113</v>
       </c>
       <c r="H25" s="162"/>
@@ -4940,15 +4943,15 @@
     </row>
     <row r="26" spans="1:24" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="157" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B26" s="161"/>
       <c r="C26" s="162"/>
       <c r="D26" s="162"/>
       <c r="E26" s="162"/>
       <c r="F26" s="162"/>
-      <c r="G26" s="253">
-        <v>691</v>
+      <c r="G26" s="251">
+        <v>719</v>
       </c>
       <c r="H26" s="162"/>
       <c r="I26" s="162"/>
@@ -4962,7 +4965,7 @@
       <c r="Q26" s="164"/>
       <c r="R26" s="150">
         <f>SUM(B26:Q26)</f>
-        <v>691</v>
+        <v>719</v>
       </c>
       <c r="S26" s="75"/>
       <c r="T26" s="52"/>
@@ -4974,7 +4977,7 @@
       <c r="D27" s="162"/>
       <c r="E27" s="162"/>
       <c r="F27" s="162"/>
-      <c r="G27" s="253"/>
+      <c r="G27" s="251"/>
       <c r="H27" s="162"/>
       <c r="I27" s="162"/>
       <c r="J27" s="162"/>
@@ -4999,7 +5002,7 @@
       <c r="D28" s="162"/>
       <c r="E28" s="162"/>
       <c r="F28" s="162"/>
-      <c r="G28" s="253"/>
+      <c r="G28" s="251"/>
       <c r="H28" s="162"/>
       <c r="I28" s="162"/>
       <c r="J28" s="162"/>
@@ -5026,7 +5029,7 @@
       <c r="D29" s="162"/>
       <c r="E29" s="162"/>
       <c r="F29" s="162"/>
-      <c r="G29" s="253"/>
+      <c r="G29" s="251"/>
       <c r="H29" s="162"/>
       <c r="I29" s="162"/>
       <c r="J29" s="162"/>
@@ -5053,7 +5056,7 @@
       <c r="D30" s="162"/>
       <c r="E30" s="162"/>
       <c r="F30" s="162"/>
-      <c r="G30" s="253"/>
+      <c r="G30" s="251"/>
       <c r="H30" s="162"/>
       <c r="I30" s="162"/>
       <c r="J30" s="162"/>
@@ -5080,7 +5083,7 @@
       <c r="D31" s="162"/>
       <c r="E31" s="162"/>
       <c r="F31" s="162"/>
-      <c r="G31" s="253"/>
+      <c r="G31" s="251"/>
       <c r="H31" s="165"/>
       <c r="I31" s="162"/>
       <c r="J31" s="162"/>
@@ -5104,7 +5107,7 @@
       <c r="D32" s="162"/>
       <c r="E32" s="162"/>
       <c r="F32" s="162"/>
-      <c r="G32" s="253"/>
+      <c r="G32" s="251"/>
       <c r="H32" s="162"/>
       <c r="I32" s="162"/>
       <c r="J32" s="162"/>
@@ -5128,7 +5131,7 @@
       <c r="D33" s="162"/>
       <c r="E33" s="162"/>
       <c r="F33" s="162"/>
-      <c r="G33" s="253"/>
+      <c r="G33" s="251"/>
       <c r="H33" s="162"/>
       <c r="I33" s="162"/>
       <c r="J33" s="162"/>
@@ -5152,7 +5155,7 @@
       <c r="D34" s="162"/>
       <c r="E34" s="162"/>
       <c r="F34" s="162"/>
-      <c r="G34" s="253"/>
+      <c r="G34" s="251"/>
       <c r="H34" s="162"/>
       <c r="I34" s="162"/>
       <c r="J34" s="162"/>
@@ -5176,7 +5179,7 @@
       <c r="D35" s="162"/>
       <c r="E35" s="162"/>
       <c r="F35" s="162"/>
-      <c r="G35" s="253"/>
+      <c r="G35" s="251"/>
       <c r="H35" s="162"/>
       <c r="I35" s="162"/>
       <c r="J35" s="162"/>
@@ -5200,7 +5203,7 @@
       <c r="D36" s="167"/>
       <c r="E36" s="167"/>
       <c r="F36" s="167"/>
-      <c r="G36" s="254"/>
+      <c r="G36" s="252"/>
       <c r="H36" s="167"/>
       <c r="I36" s="167"/>
       <c r="J36" s="167"/>
@@ -5243,7 +5246,7 @@
       </c>
       <c r="G37" s="154">
         <f t="shared" si="1"/>
-        <v>17924</v>
+        <v>17952</v>
       </c>
       <c r="H37" s="154">
         <f t="shared" si="1"/>
@@ -5287,7 +5290,7 @@
       </c>
       <c r="R37" s="156">
         <f>SUM(R6:R36)</f>
-        <v>19714</v>
+        <v>19742</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -7284,10 +7287,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -7304,6 +7303,10 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7316,7 +7319,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7330,12 +7333,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="367" t="s">
+      <c r="A1" s="366" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="368"/>
-      <c r="C1" s="368"/>
-      <c r="D1" s="369"/>
+      <c r="B1" s="367"/>
+      <c r="C1" s="367"/>
+      <c r="D1" s="368"/>
       <c r="F1" s="9"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -7350,12 +7353,12 @@
       <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="370" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="370"/>
-      <c r="C2" s="370"/>
-      <c r="D2" s="370"/>
+      <c r="A2" s="369" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="369"/>
+      <c r="C2" s="369"/>
+      <c r="D2" s="369"/>
       <c r="E2" s="13"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
@@ -7425,7 +7428,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5" s="33">
         <v>0</v>
@@ -7455,7 +7458,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B6" s="33">
         <v>702000</v>
@@ -7485,7 +7488,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B7" s="33">
         <v>185000</v>
@@ -7515,7 +7518,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B8" s="41">
         <v>306000</v>
@@ -7545,7 +7548,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B9" s="41">
         <v>0</v>
@@ -7575,7 +7578,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B10" s="41">
         <v>0</v>
@@ -7603,7 +7606,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B11" s="45">
         <v>480000</v>
@@ -7633,7 +7636,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B12" s="45">
         <v>440000</v>
@@ -7663,7 +7666,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B13" s="47">
         <v>293000</v>
@@ -7693,7 +7696,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B14" s="48">
         <v>300600</v>
@@ -7723,7 +7726,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="48">
@@ -7751,7 +7754,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B16" s="33">
         <v>0</v>
@@ -7781,7 +7784,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B17" s="33">
         <v>0</v>
@@ -7811,7 +7814,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B18" s="41">
         <v>362000</v>
@@ -7841,7 +7844,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B19" s="41">
         <v>243000</v>
@@ -7871,7 +7874,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B20" s="41">
         <v>0</v>
@@ -7901,7 +7904,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B21" s="33">
         <v>0</v>
@@ -7931,7 +7934,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B22" s="33">
         <v>300000</v>
@@ -7961,7 +7964,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B23" s="33">
         <v>0</v>
@@ -7991,7 +7994,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B24" s="33">
         <v>297000</v>
@@ -8021,7 +8024,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" s="33">
         <v>213000</v>
@@ -8051,7 +8054,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B26" s="33">
         <v>250000</v>
@@ -8079,7 +8082,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B27" s="33">
         <v>50000</v>
@@ -8107,7 +8110,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B28" s="33">
         <v>194000</v>
@@ -9385,7 +9388,7 @@
   </sheetPr>
   <dimension ref="B1:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -9411,158 +9414,150 @@
       <c r="H1" s="170"/>
     </row>
     <row r="2" spans="2:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="376" t="s">
+      <c r="B2" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="377"/>
-      <c r="D2" s="377"/>
-      <c r="E2" s="377"/>
-      <c r="F2" s="378"/>
+      <c r="C2" s="376"/>
+      <c r="D2" s="376"/>
+      <c r="E2" s="376"/>
+      <c r="F2" s="377"/>
       <c r="H2" s="90"/>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
-      <c r="K2" s="371" t="s">
-        <v>225</v>
-      </c>
-      <c r="L2" s="372"/>
-      <c r="M2" s="373"/>
+      <c r="K2" s="370" t="s">
+        <v>224</v>
+      </c>
+      <c r="L2" s="371"/>
+      <c r="M2" s="372"/>
     </row>
     <row r="3" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="379" t="s">
+      <c r="B3" s="378" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="380"/>
-      <c r="D3" s="380"/>
-      <c r="E3" s="380"/>
-      <c r="F3" s="381"/>
+      <c r="C3" s="379"/>
+      <c r="D3" s="379"/>
+      <c r="E3" s="379"/>
+      <c r="F3" s="380"/>
       <c r="H3" s="90"/>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
-      <c r="K3" s="268" t="s">
+      <c r="K3" s="266" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="269" t="s">
+      <c r="M3" s="267" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="382" t="s">
+      <c r="B4" s="381" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="383"/>
-      <c r="D4" s="383"/>
-      <c r="E4" s="383"/>
-      <c r="F4" s="384"/>
-      <c r="K4" s="297" t="s">
+      <c r="C4" s="382"/>
+      <c r="D4" s="382"/>
+      <c r="E4" s="382"/>
+      <c r="F4" s="383"/>
+      <c r="K4" s="295" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="298" t="s">
+      <c r="L4" s="296" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="299">
+      <c r="M4" s="297">
         <v>2050</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="242" t="s">
+      <c r="B5" s="241" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="222">
         <v>300000</v>
       </c>
-      <c r="D5" s="389"/>
-      <c r="E5" s="224" t="s">
+      <c r="D5" s="388"/>
+      <c r="E5" s="223" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="245">
+      <c r="F5" s="243">
         <v>300000</v>
       </c>
       <c r="G5" s="21"/>
-      <c r="K5" s="297" t="s">
+      <c r="K5" s="295" t="s">
         <v>110</v>
       </c>
-      <c r="L5" s="298" t="s">
+      <c r="L5" s="296" t="s">
         <v>111</v>
       </c>
-      <c r="M5" s="299">
+      <c r="M5" s="297">
         <v>8000</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="B6" s="243" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="223">
-        <v>25000</v>
-      </c>
-      <c r="D6" s="389"/>
-      <c r="E6" s="224" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="245">
-        <v>25000</v>
-      </c>
+      <c r="B6" s="390"/>
+      <c r="C6" s="391"/>
+      <c r="D6" s="388"/>
+      <c r="E6" s="392"/>
+      <c r="F6" s="393"/>
       <c r="G6" s="21"/>
-      <c r="K6" s="297" t="s">
+      <c r="K6" s="295" t="s">
         <v>115</v>
       </c>
-      <c r="L6" s="298" t="s">
+      <c r="L6" s="296" t="s">
         <v>116</v>
       </c>
-      <c r="M6" s="299">
+      <c r="M6" s="297">
         <v>4250</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="246" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" s="244">
+      <c r="B7" s="244" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="242">
         <v>500000</v>
       </c>
-      <c r="D7" s="389"/>
-      <c r="E7" s="226" t="s">
+      <c r="D7" s="388"/>
+      <c r="E7" s="225" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="286">
-        <v>377938.65</v>
+      <c r="F7" s="284">
+        <v>375815.375</v>
       </c>
       <c r="G7" s="21"/>
-      <c r="K7" s="297" t="s">
+      <c r="K7" s="295" t="s">
         <v>117</v>
       </c>
-      <c r="L7" s="298" t="s">
+      <c r="L7" s="296" t="s">
         <v>119</v>
       </c>
-      <c r="M7" s="299">
+      <c r="M7" s="297">
         <v>1900</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="219" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8" s="231">
+        <v>204</v>
+      </c>
+      <c r="C8" s="230">
         <v>500000</v>
       </c>
-      <c r="D8" s="389"/>
-      <c r="E8" s="227" t="s">
+      <c r="D8" s="388"/>
+      <c r="E8" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="238">
+      <c r="F8" s="237">
         <v>23331</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="K8" s="297" t="s">
+      <c r="K8" s="295" t="s">
         <v>120</v>
       </c>
-      <c r="L8" s="298" t="s">
+      <c r="L8" s="296" t="s">
         <v>122</v>
       </c>
-      <c r="M8" s="299">
+      <c r="M8" s="297">
         <v>750</v>
       </c>
     </row>
@@ -9570,135 +9565,135 @@
       <c r="B9" s="219" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="232">
-        <v>19714</v>
-      </c>
-      <c r="D9" s="389"/>
-      <c r="E9" s="227" t="s">
+      <c r="C9" s="231">
+        <v>19742</v>
+      </c>
+      <c r="D9" s="388"/>
+      <c r="E9" s="226" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="238">
+      <c r="F9" s="237">
         <v>153549</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="K9" s="297" t="s">
+      <c r="K9" s="295" t="s">
         <v>124</v>
       </c>
-      <c r="L9" s="298" t="s">
+      <c r="L9" s="296" t="s">
         <v>75</v>
       </c>
-      <c r="M9" s="299">
+      <c r="M9" s="297">
         <v>3152</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="287" t="s">
-        <v>208</v>
-      </c>
-      <c r="C10" s="232"/>
-      <c r="D10" s="389"/>
-      <c r="E10" s="229" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" s="239">
+      <c r="B10" s="285" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="231"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="228" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" s="238">
         <v>158585</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="K10" s="297" t="s">
+      <c r="K10" s="295" t="s">
         <v>125</v>
       </c>
-      <c r="L10" s="298" t="s">
+      <c r="L10" s="296" t="s">
         <v>75</v>
       </c>
-      <c r="M10" s="299">
+      <c r="M10" s="297">
         <v>5023</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="225" t="s">
-        <v>216</v>
-      </c>
-      <c r="C11" s="233">
+      <c r="B11" s="224" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="232">
         <f>C9+C10</f>
-        <v>19714</v>
-      </c>
-      <c r="D11" s="389"/>
-      <c r="E11" s="228" t="s">
+        <v>19742</v>
+      </c>
+      <c r="D11" s="388"/>
+      <c r="E11" s="227" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="240">
-        <v>126187.41499999992</v>
+      <c r="F11" s="239">
+        <v>128304.75</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="K11" s="297" t="s">
-        <v>167</v>
-      </c>
-      <c r="L11" s="294" t="s">
-        <v>171</v>
-      </c>
-      <c r="M11" s="299">
+      <c r="K11" s="295" t="s">
+        <v>166</v>
+      </c>
+      <c r="L11" s="292" t="s">
+        <v>170</v>
+      </c>
+      <c r="M11" s="297">
         <v>1500</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="219" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="232">
-        <v>45566.065000000002</v>
-      </c>
-      <c r="D12" s="389"/>
-      <c r="E12" s="228" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="247">
+        <v>216</v>
+      </c>
+      <c r="C12" s="231">
+        <v>45588.125000000007</v>
+      </c>
+      <c r="D12" s="388"/>
+      <c r="E12" s="227" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="245">
         <v>13739</v>
       </c>
       <c r="G12" s="18"/>
-      <c r="K12" s="300" t="s">
-        <v>173</v>
-      </c>
-      <c r="L12" s="298" t="s">
-        <v>171</v>
-      </c>
-      <c r="M12" s="299">
+      <c r="K12" s="298" t="s">
+        <v>172</v>
+      </c>
+      <c r="L12" s="296" t="s">
+        <v>170</v>
+      </c>
+      <c r="M12" s="297">
         <v>750</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="258" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="234"/>
-      <c r="D13" s="389"/>
-      <c r="E13" s="227" t="s">
+      <c r="B13" s="256" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="233"/>
+      <c r="D13" s="388"/>
+      <c r="E13" s="226" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="240"/>
+      <c r="F13" s="239"/>
       <c r="G13" s="18"/>
-      <c r="K13" s="300" t="s">
-        <v>175</v>
-      </c>
-      <c r="L13" s="298" t="s">
+      <c r="K13" s="298" t="s">
+        <v>174</v>
+      </c>
+      <c r="L13" s="296" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="299">
+      <c r="M13" s="297">
         <v>2295</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="220" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" s="235">
+        <v>206</v>
+      </c>
+      <c r="C14" s="234">
         <f>C12+C13</f>
-        <v>45566.065000000002</v>
-      </c>
-      <c r="D14" s="389"/>
-      <c r="E14" s="227" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14" s="239">
+        <v>45588.125000000007</v>
+      </c>
+      <c r="D14" s="388"/>
+      <c r="E14" s="226" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="238">
         <v>300000</v>
       </c>
       <c r="G14" s="91"/>
@@ -9708,121 +9703,121 @@
         <v>0</v>
       </c>
       <c r="J14" s="92"/>
-      <c r="K14" s="300" t="s">
-        <v>177</v>
-      </c>
-      <c r="L14" s="298" t="s">
+      <c r="K14" s="298" t="s">
+        <v>176</v>
+      </c>
+      <c r="L14" s="296" t="s">
         <v>75</v>
       </c>
-      <c r="M14" s="299">
+      <c r="M14" s="297">
         <v>2546</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="B15" s="288" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" s="236">
+      <c r="B15" s="286" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="235">
         <f>C14-C11</f>
-        <v>25852.065000000002</v>
-      </c>
-      <c r="D15" s="389"/>
-      <c r="E15" s="229" t="s">
-        <v>172</v>
-      </c>
-      <c r="F15" s="239"/>
+        <v>25846.125000000007</v>
+      </c>
+      <c r="D15" s="388"/>
+      <c r="E15" s="228" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="238"/>
       <c r="G15" s="18"/>
-      <c r="K15" s="300" t="s">
-        <v>180</v>
-      </c>
-      <c r="L15" s="298" t="s">
+      <c r="K15" s="298" t="s">
+        <v>179</v>
+      </c>
+      <c r="L15" s="296" t="s">
         <v>75</v>
       </c>
-      <c r="M15" s="299">
+      <c r="M15" s="297">
         <v>2673</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B16" s="221" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="236">
+        <v>0</v>
+      </c>
+      <c r="D16" s="388"/>
+      <c r="E16" s="229"/>
+      <c r="F16" s="240"/>
+      <c r="G16" s="18"/>
+      <c r="K16" s="298" t="s">
+        <v>225</v>
+      </c>
+      <c r="L16" s="296" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" s="297">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="246" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="237">
-        <v>0</v>
-      </c>
-      <c r="D16" s="389"/>
-      <c r="E16" s="230"/>
-      <c r="F16" s="241"/>
-      <c r="G16" s="18"/>
-      <c r="K16" s="300" t="s">
-        <v>226</v>
-      </c>
-      <c r="L16" s="298" t="s">
-        <v>171</v>
-      </c>
-      <c r="M16" s="299">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="248" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="249">
+      <c r="C17" s="247">
         <f>C8+C12-C11+C16</f>
-        <v>525852.06499999994</v>
-      </c>
-      <c r="D17" s="390"/>
-      <c r="E17" s="250" t="s">
+        <v>525846.125</v>
+      </c>
+      <c r="D17" s="389"/>
+      <c r="E17" s="248" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="251">
+      <c r="F17" s="249">
         <f>F7+F8+F9+F10+F11-F14+F15-F12</f>
-        <v>525852.06499999994</v>
+        <v>525846.125</v>
       </c>
       <c r="G17" s="18"/>
-      <c r="K17" s="301" t="s">
+      <c r="K17" s="299" t="s">
+        <v>186</v>
+      </c>
+      <c r="L17" s="296" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="297">
+        <v>5706</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="385" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="386"/>
+      <c r="D18" s="386"/>
+      <c r="E18" s="386"/>
+      <c r="F18" s="387"/>
+      <c r="G18" s="18"/>
+      <c r="K18" s="300" t="s">
         <v>187</v>
       </c>
-      <c r="L17" s="298" t="s">
-        <v>75</v>
-      </c>
-      <c r="M17" s="299">
-        <v>5706</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="386" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="387"/>
-      <c r="D18" s="387"/>
-      <c r="E18" s="387"/>
-      <c r="F18" s="388"/>
-      <c r="G18" s="18"/>
-      <c r="K18" s="302" t="s">
+      <c r="L18" s="296" t="s">
         <v>188</v>
       </c>
-      <c r="L18" s="298" t="s">
+      <c r="M18" s="297">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="384"/>
+      <c r="C19" s="384"/>
+      <c r="D19" s="384"/>
+      <c r="E19" s="384"/>
+      <c r="F19" s="384"/>
+      <c r="G19" s="18"/>
+      <c r="K19" s="300" t="s">
         <v>189</v>
       </c>
-      <c r="M18" s="299">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="385"/>
-      <c r="C19" s="385"/>
-      <c r="D19" s="385"/>
-      <c r="E19" s="385"/>
-      <c r="F19" s="385"/>
-      <c r="G19" s="18"/>
-      <c r="K19" s="302" t="s">
+      <c r="L19" s="301" t="s">
         <v>190</v>
       </c>
-      <c r="L19" s="303" t="s">
-        <v>191</v>
-      </c>
-      <c r="M19" s="299">
+      <c r="M19" s="297">
         <v>2437</v>
       </c>
     </row>
@@ -9831,13 +9826,13 @@
       <c r="D20" s="20"/>
       <c r="E20" s="13"/>
       <c r="G20" s="19"/>
-      <c r="K20" s="300" t="s">
-        <v>192</v>
-      </c>
-      <c r="L20" s="298" t="s">
+      <c r="K20" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="M20" s="299">
+      <c r="L20" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="M20" s="297">
         <v>1167</v>
       </c>
     </row>
@@ -9846,13 +9841,13 @@
       <c r="D21" s="20"/>
       <c r="E21" s="13"/>
       <c r="G21" s="19"/>
-      <c r="K21" s="300" t="s">
-        <v>197</v>
-      </c>
-      <c r="L21" s="298" t="s">
+      <c r="K21" s="298" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" s="296" t="s">
         <v>75</v>
       </c>
-      <c r="M21" s="299">
+      <c r="M21" s="297">
         <v>252</v>
       </c>
     </row>
@@ -9861,13 +9856,13 @@
       <c r="D22" s="20"/>
       <c r="E22" s="13"/>
       <c r="G22" s="19"/>
-      <c r="K22" s="300" t="s">
-        <v>204</v>
-      </c>
-      <c r="L22" s="298" t="s">
+      <c r="K22" s="298" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" s="296" t="s">
         <v>113</v>
       </c>
-      <c r="M22" s="299">
+      <c r="M22" s="297">
         <v>21028</v>
       </c>
     </row>
@@ -9876,28 +9871,28 @@
       <c r="D23" s="20"/>
       <c r="E23" s="13"/>
       <c r="G23" s="19"/>
-      <c r="K23" s="300" t="s">
-        <v>201</v>
-      </c>
-      <c r="L23" s="298" t="s">
-        <v>224</v>
-      </c>
-      <c r="M23" s="299">
+      <c r="K23" s="298" t="s">
+        <v>200</v>
+      </c>
+      <c r="L23" s="296" t="s">
+        <v>223</v>
+      </c>
+      <c r="M23" s="297">
         <v>87287</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="306"/>
+      <c r="C24" s="304"/>
       <c r="D24" s="20"/>
       <c r="E24" s="13"/>
       <c r="G24" s="19"/>
-      <c r="K24" s="307" t="s">
+      <c r="K24" s="305" t="s">
+        <v>231</v>
+      </c>
+      <c r="L24" s="307" t="s">
         <v>232</v>
       </c>
-      <c r="L24" s="309" t="s">
-        <v>233</v>
-      </c>
-      <c r="M24" s="308">
+      <c r="M24" s="306">
         <v>1719</v>
       </c>
     </row>
@@ -9905,11 +9900,11 @@
       <c r="C25" s="8"/>
       <c r="D25" s="20"/>
       <c r="G25" s="19"/>
-      <c r="K25" s="374" t="s">
+      <c r="K25" s="373" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="375"/>
-      <c r="M25" s="304">
+      <c r="L25" s="374"/>
+      <c r="M25" s="302">
         <f>SUM(M4:M24)</f>
         <v>158585</v>
       </c>
@@ -9918,26 +9913,26 @@
       <c r="C26" s="8"/>
       <c r="D26" s="20"/>
       <c r="G26" s="19"/>
-      <c r="K26" s="305"/>
-      <c r="L26" s="305"/>
-      <c r="M26" s="305"/>
+      <c r="K26" s="303"/>
+      <c r="L26" s="303"/>
+      <c r="M26" s="303"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C27" s="8"/>
       <c r="D27" s="20"/>
       <c r="G27" s="19"/>
-      <c r="K27" s="305"/>
-      <c r="L27" s="305"/>
-      <c r="M27" s="305"/>
+      <c r="K27" s="303"/>
+      <c r="L27" s="303"/>
+      <c r="M27" s="303"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D28" s="20"/>
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
       <c r="G28" s="19"/>
-      <c r="K28" s="305"/>
-      <c r="L28" s="305"/>
-      <c r="M28" s="305"/>
+      <c r="K28" s="303"/>
+      <c r="L28" s="303"/>
+      <c r="M28" s="303"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D29" s="14"/>
@@ -9946,9 +9941,9 @@
         <v>105</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="K29" s="305"/>
-      <c r="L29" s="305"/>
-      <c r="M29" s="305"/>
+      <c r="K29" s="303"/>
+      <c r="L29" s="303"/>
+      <c r="M29" s="303"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D30" s="14"/>
@@ -9962,9 +9957,9 @@
       <c r="D31" s="14"/>
       <c r="E31" s="15"/>
       <c r="F31" s="16"/>
-      <c r="K31" s="296"/>
-      <c r="L31" s="289"/>
-      <c r="M31" s="289"/>
+      <c r="K31" s="294"/>
+      <c r="L31" s="287"/>
+      <c r="M31" s="287"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="93"/>
@@ -9975,9 +9970,9 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="289"/>
-      <c r="L32" s="289"/>
-      <c r="M32" s="289"/>
+      <c r="K32" s="287"/>
+      <c r="L32" s="287"/>
+      <c r="M32" s="287"/>
     </row>
     <row r="33" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="93"/>
@@ -9985,100 +9980,100 @@
       <c r="D33" s="20"/>
       <c r="E33" s="7"/>
       <c r="F33" s="10"/>
-      <c r="K33" s="289"/>
-      <c r="L33" s="289"/>
-      <c r="M33" s="289"/>
+      <c r="K33" s="287"/>
+      <c r="L33" s="287"/>
+      <c r="M33" s="287"/>
     </row>
     <row r="34" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" s="8"/>
       <c r="D34" s="20"/>
       <c r="E34" s="12"/>
       <c r="F34" s="8"/>
-      <c r="K34" s="289"/>
-      <c r="L34" s="289"/>
-      <c r="M34" s="289"/>
+      <c r="K34" s="287"/>
+      <c r="L34" s="287"/>
+      <c r="M34" s="287"/>
     </row>
     <row r="35" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" s="8"/>
       <c r="D35" s="20"/>
       <c r="E35" s="7"/>
       <c r="F35" s="10"/>
-      <c r="K35" s="289"/>
-      <c r="L35" s="289"/>
-      <c r="M35" s="289"/>
+      <c r="K35" s="287"/>
+      <c r="L35" s="287"/>
+      <c r="M35" s="287"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" s="8"/>
       <c r="D36" s="20"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="K36" s="289"/>
-      <c r="L36" s="289"/>
-      <c r="M36" s="289"/>
+      <c r="K36" s="287"/>
+      <c r="L36" s="287"/>
+      <c r="M36" s="287"/>
     </row>
     <row r="37" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" s="8"/>
       <c r="D37" s="20"/>
       <c r="E37" s="7"/>
       <c r="F37" s="10"/>
-      <c r="K37" s="289"/>
-      <c r="L37" s="289"/>
-      <c r="M37" s="289"/>
+      <c r="K37" s="287"/>
+      <c r="L37" s="287"/>
+      <c r="M37" s="287"/>
     </row>
     <row r="38" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K38" s="295"/>
-      <c r="L38" s="295"/>
-      <c r="M38" s="289"/>
+      <c r="K38" s="293"/>
+      <c r="L38" s="293"/>
+      <c r="M38" s="287"/>
     </row>
     <row r="39" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K39" s="278"/>
-      <c r="L39" s="279"/>
-      <c r="M39" s="278"/>
+      <c r="K39" s="276"/>
+      <c r="L39" s="277"/>
+      <c r="M39" s="276"/>
     </row>
     <row r="40" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K40" s="289"/>
-      <c r="L40" s="289"/>
-      <c r="M40" s="289"/>
+      <c r="K40" s="287"/>
+      <c r="L40" s="287"/>
+      <c r="M40" s="287"/>
     </row>
     <row r="41" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K41" s="289"/>
-      <c r="L41" s="289"/>
-      <c r="M41" s="289"/>
+      <c r="K41" s="287"/>
+      <c r="L41" s="287"/>
+      <c r="M41" s="287"/>
     </row>
     <row r="42" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K42" s="289"/>
-      <c r="L42" s="289"/>
-      <c r="M42" s="289"/>
+      <c r="K42" s="287"/>
+      <c r="L42" s="287"/>
+      <c r="M42" s="287"/>
     </row>
     <row r="43" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K43" s="289"/>
-      <c r="L43" s="289"/>
-      <c r="M43" s="289"/>
+      <c r="K43" s="287"/>
+      <c r="L43" s="287"/>
+      <c r="M43" s="287"/>
     </row>
     <row r="44" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K44" s="289"/>
-      <c r="L44" s="289"/>
-      <c r="M44" s="289"/>
+      <c r="K44" s="287"/>
+      <c r="L44" s="287"/>
+      <c r="M44" s="287"/>
     </row>
     <row r="45" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K45" s="289"/>
-      <c r="L45" s="289"/>
-      <c r="M45" s="289"/>
+      <c r="K45" s="287"/>
+      <c r="L45" s="287"/>
+      <c r="M45" s="287"/>
     </row>
     <row r="46" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K46" s="289"/>
-      <c r="L46" s="289"/>
-      <c r="M46" s="289"/>
+      <c r="K46" s="287"/>
+      <c r="L46" s="287"/>
+      <c r="M46" s="287"/>
     </row>
     <row r="47" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K47" s="289"/>
-      <c r="L47" s="289"/>
-      <c r="M47" s="289"/>
+      <c r="K47" s="287"/>
+      <c r="L47" s="287"/>
+      <c r="M47" s="287"/>
     </row>
     <row r="48" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K48" s="295"/>
-      <c r="L48" s="295"/>
-      <c r="M48" s="289"/>
+      <c r="K48" s="293"/>
+      <c r="L48" s="293"/>
+      <c r="M48" s="287"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="17"/>
@@ -11090,7 +11085,7 @@
   <sortState ref="K6:M36">
     <sortCondition ref="K6"/>
   </sortState>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="B2:F2"/>
@@ -11099,6 +11094,8 @@
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="D5:D17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11144,119 +11141,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="397" t="s">
+      <c r="A1" s="400" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="397"/>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="397"/>
-      <c r="H1" s="397"/>
-      <c r="I1" s="397"/>
-      <c r="J1" s="397"/>
-      <c r="K1" s="397"/>
-      <c r="L1" s="397"/>
-      <c r="M1" s="397"/>
-      <c r="N1" s="397"/>
-      <c r="O1" s="397"/>
-      <c r="P1" s="397"/>
-      <c r="Q1" s="397"/>
+      <c r="B1" s="400"/>
+      <c r="C1" s="400"/>
+      <c r="D1" s="400"/>
+      <c r="E1" s="400"/>
+      <c r="F1" s="400"/>
+      <c r="G1" s="400"/>
+      <c r="H1" s="400"/>
+      <c r="I1" s="400"/>
+      <c r="J1" s="400"/>
+      <c r="K1" s="400"/>
+      <c r="L1" s="400"/>
+      <c r="M1" s="400"/>
+      <c r="N1" s="400"/>
+      <c r="O1" s="400"/>
+      <c r="P1" s="400"/>
+      <c r="Q1" s="400"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="397"/>
-      <c r="B2" s="397"/>
-      <c r="C2" s="397"/>
-      <c r="D2" s="397"/>
-      <c r="E2" s="397"/>
-      <c r="F2" s="397"/>
-      <c r="G2" s="397"/>
-      <c r="H2" s="397"/>
-      <c r="I2" s="397"/>
-      <c r="J2" s="397"/>
-      <c r="K2" s="397"/>
-      <c r="L2" s="397"/>
-      <c r="M2" s="397"/>
-      <c r="N2" s="397"/>
-      <c r="O2" s="397"/>
-      <c r="P2" s="397"/>
-      <c r="Q2" s="397"/>
+      <c r="A2" s="400"/>
+      <c r="B2" s="400"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="400"/>
+      <c r="H2" s="400"/>
+      <c r="I2" s="400"/>
+      <c r="J2" s="400"/>
+      <c r="K2" s="400"/>
+      <c r="L2" s="400"/>
+      <c r="M2" s="400"/>
+      <c r="N2" s="400"/>
+      <c r="O2" s="400"/>
+      <c r="P2" s="400"/>
+      <c r="Q2" s="400"/>
     </row>
     <row r="3" spans="1:22" s="96" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="398" t="s">
+      <c r="A3" s="401" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="398"/>
-      <c r="C3" s="398"/>
-      <c r="D3" s="398"/>
-      <c r="E3" s="398"/>
-      <c r="F3" s="398"/>
-      <c r="G3" s="398"/>
-      <c r="H3" s="398"/>
-      <c r="I3" s="398"/>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
-      <c r="L3" s="398"/>
-      <c r="M3" s="398"/>
-      <c r="N3" s="398"/>
-      <c r="O3" s="398"/>
-      <c r="P3" s="398"/>
-      <c r="Q3" s="398"/>
+      <c r="B3" s="401"/>
+      <c r="C3" s="401"/>
+      <c r="D3" s="401"/>
+      <c r="E3" s="401"/>
+      <c r="F3" s="401"/>
+      <c r="G3" s="401"/>
+      <c r="H3" s="401"/>
+      <c r="I3" s="401"/>
+      <c r="J3" s="401"/>
+      <c r="K3" s="401"/>
+      <c r="L3" s="401"/>
+      <c r="M3" s="401"/>
+      <c r="N3" s="401"/>
+      <c r="O3" s="401"/>
+      <c r="P3" s="401"/>
+      <c r="Q3" s="401"/>
     </row>
     <row r="4" spans="1:22" s="96" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="399" t="s">
+      <c r="A4" s="402" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="399"/>
-      <c r="C4" s="399"/>
-      <c r="D4" s="399"/>
-      <c r="E4" s="399"/>
-      <c r="F4" s="399"/>
-      <c r="G4" s="399"/>
-      <c r="H4" s="399"/>
-      <c r="I4" s="399"/>
-      <c r="J4" s="399"/>
-      <c r="K4" s="399"/>
-      <c r="L4" s="399"/>
-      <c r="M4" s="399"/>
-      <c r="N4" s="399"/>
-      <c r="O4" s="399"/>
-      <c r="P4" s="399"/>
-      <c r="Q4" s="399"/>
+      <c r="B4" s="402"/>
+      <c r="C4" s="402"/>
+      <c r="D4" s="402"/>
+      <c r="E4" s="402"/>
+      <c r="F4" s="402"/>
+      <c r="G4" s="402"/>
+      <c r="H4" s="402"/>
+      <c r="I4" s="402"/>
+      <c r="J4" s="402"/>
+      <c r="K4" s="402"/>
+      <c r="L4" s="402"/>
+      <c r="M4" s="402"/>
+      <c r="N4" s="402"/>
+      <c r="O4" s="402"/>
+      <c r="P4" s="402"/>
+      <c r="Q4" s="402"/>
       <c r="U4" s="96">
         <v>2455</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="96" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="404" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="405"/>
-      <c r="C5" s="406"/>
+      <c r="A5" s="407" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="408"/>
+      <c r="C5" s="409"/>
       <c r="D5" s="182" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="182"/>
-      <c r="F5" s="400" t="s">
+      <c r="F5" s="403" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="401"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="401"/>
-      <c r="J5" s="401"/>
-      <c r="K5" s="401"/>
-      <c r="L5" s="401"/>
-      <c r="M5" s="401"/>
-      <c r="N5" s="401"/>
-      <c r="O5" s="401"/>
-      <c r="P5" s="401"/>
-      <c r="Q5" s="402"/>
-      <c r="T5" s="394" t="s">
+      <c r="G5" s="404"/>
+      <c r="H5" s="404"/>
+      <c r="I5" s="404"/>
+      <c r="J5" s="404"/>
+      <c r="K5" s="404"/>
+      <c r="L5" s="404"/>
+      <c r="M5" s="404"/>
+      <c r="N5" s="404"/>
+      <c r="O5" s="404"/>
+      <c r="P5" s="404"/>
+      <c r="Q5" s="405"/>
+      <c r="T5" s="397" t="s">
         <v>78</v>
       </c>
-      <c r="U5" s="395"/>
-      <c r="V5" s="396"/>
+      <c r="U5" s="398"/>
+      <c r="V5" s="399"/>
     </row>
     <row r="6" spans="1:22" s="176" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="194" t="s">
@@ -11430,7 +11427,7 @@
         <v>63</v>
       </c>
       <c r="C10" s="130" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" s="102"/>
       <c r="E10" s="183"/>
@@ -11461,7 +11458,7 @@
       <c r="A11" s="101"/>
       <c r="B11" s="111"/>
       <c r="C11" s="130" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D11" s="102"/>
       <c r="E11" s="183"/>
@@ -11729,10 +11726,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="130" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D19" s="102"/>
       <c r="E19" s="183"/>
@@ -11748,11 +11745,11 @@
       <c r="O19" s="114"/>
       <c r="P19" s="114"/>
       <c r="Q19" s="119"/>
-      <c r="T19" s="403" t="s">
+      <c r="T19" s="406" t="s">
         <v>93</v>
       </c>
-      <c r="U19" s="403"/>
-      <c r="V19" s="403"/>
+      <c r="U19" s="406"/>
+      <c r="V19" s="406"/>
     </row>
     <row r="20" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="101">
@@ -11870,7 +11867,7 @@
       </c>
       <c r="B23" s="111"/>
       <c r="C23" s="198" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D23" s="121"/>
       <c r="E23" s="184"/>
@@ -11933,7 +11930,7 @@
       </c>
       <c r="B25" s="111"/>
       <c r="C25" s="130" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D25" s="121"/>
       <c r="E25" s="184"/>
@@ -11956,7 +11953,7 @@
       </c>
       <c r="B26" s="111"/>
       <c r="C26" s="131" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D26" s="121"/>
       <c r="E26" s="185"/>
@@ -12020,11 +12017,11 @@
       <c r="Q28" s="119"/>
     </row>
     <row r="29" spans="1:22" s="103" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="391" t="s">
+      <c r="A29" s="394" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="392"/>
-      <c r="C29" s="393"/>
+      <c r="B29" s="395"/>
+      <c r="C29" s="396"/>
       <c r="D29" s="128">
         <f t="shared" ref="D29:P29" si="1">SUM(D7:D28)</f>
         <v>0</v>
@@ -12749,9 +12746,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AE60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y8" sqref="Y8"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12764,61 +12761,61 @@
   <sheetData>
     <row r="1" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="408" t="s">
+      <c r="B2" s="411" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="409"/>
-      <c r="D2" s="409"/>
-      <c r="E2" s="409"/>
-      <c r="F2" s="409"/>
-      <c r="G2" s="410"/>
-      <c r="H2" s="410"/>
-      <c r="I2" s="410"/>
-      <c r="J2" s="410"/>
-      <c r="K2" s="410"/>
-      <c r="L2" s="410"/>
-      <c r="M2" s="410"/>
-      <c r="N2" s="410"/>
-      <c r="O2" s="410"/>
-      <c r="P2" s="410"/>
-      <c r="Q2" s="410"/>
-      <c r="R2" s="410"/>
-      <c r="S2" s="410"/>
-      <c r="T2" s="410"/>
-      <c r="U2" s="410"/>
-      <c r="V2" s="410"/>
-      <c r="W2" s="410"/>
-      <c r="X2" s="411"/>
+      <c r="C2" s="412"/>
+      <c r="D2" s="412"/>
+      <c r="E2" s="412"/>
+      <c r="F2" s="412"/>
+      <c r="G2" s="413"/>
+      <c r="H2" s="413"/>
+      <c r="I2" s="413"/>
+      <c r="J2" s="413"/>
+      <c r="K2" s="413"/>
+      <c r="L2" s="413"/>
+      <c r="M2" s="413"/>
+      <c r="N2" s="413"/>
+      <c r="O2" s="413"/>
+      <c r="P2" s="413"/>
+      <c r="Q2" s="413"/>
+      <c r="R2" s="413"/>
+      <c r="S2" s="413"/>
+      <c r="T2" s="413"/>
+      <c r="U2" s="413"/>
+      <c r="V2" s="413"/>
+      <c r="W2" s="413"/>
+      <c r="X2" s="414"/>
       <c r="Y2" s="137"/>
     </row>
     <row r="3" spans="2:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="414" t="s">
+      <c r="B3" s="417" t="s">
         <v>241</v>
       </c>
-      <c r="C3" s="415"/>
-      <c r="D3" s="415"/>
-      <c r="E3" s="415"/>
-      <c r="F3" s="416"/>
-      <c r="G3" s="418"/>
-      <c r="H3" s="418"/>
-      <c r="I3" s="418"/>
-      <c r="J3" s="418"/>
-      <c r="K3" s="418"/>
-      <c r="L3" s="412" t="s">
+      <c r="C3" s="418"/>
+      <c r="D3" s="418"/>
+      <c r="E3" s="418"/>
+      <c r="F3" s="419"/>
+      <c r="G3" s="421"/>
+      <c r="H3" s="421"/>
+      <c r="I3" s="421"/>
+      <c r="J3" s="421"/>
+      <c r="K3" s="421"/>
+      <c r="L3" s="415" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="412"/>
-      <c r="N3" s="412"/>
-      <c r="O3" s="412"/>
-      <c r="P3" s="412"/>
-      <c r="Q3" s="412"/>
-      <c r="R3" s="412"/>
-      <c r="S3" s="412"/>
-      <c r="T3" s="412"/>
-      <c r="U3" s="412"/>
-      <c r="V3" s="412"/>
-      <c r="W3" s="412"/>
-      <c r="X3" s="413"/>
+      <c r="M3" s="415"/>
+      <c r="N3" s="415"/>
+      <c r="O3" s="415"/>
+      <c r="P3" s="415"/>
+      <c r="Q3" s="415"/>
+      <c r="R3" s="415"/>
+      <c r="S3" s="415"/>
+      <c r="T3" s="415"/>
+      <c r="U3" s="415"/>
+      <c r="V3" s="415"/>
+      <c r="W3" s="415"/>
+      <c r="X3" s="416"/>
       <c r="Y3" s="138"/>
       <c r="Z3" s="138"/>
       <c r="AA3" s="138"/>
@@ -12829,42 +12826,42 @@
     </row>
     <row r="4" spans="2:31" s="96" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="173"/>
-      <c r="C4" s="407" t="s">
+      <c r="C4" s="410" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="407"/>
-      <c r="E4" s="407"/>
-      <c r="F4" s="407" t="s">
+      <c r="D4" s="410"/>
+      <c r="E4" s="410"/>
+      <c r="F4" s="410" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="407"/>
-      <c r="H4" s="407"/>
-      <c r="I4" s="407" t="s">
+      <c r="G4" s="410"/>
+      <c r="H4" s="410"/>
+      <c r="I4" s="410" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="407"/>
-      <c r="K4" s="407"/>
-      <c r="L4" s="407" t="s">
+      <c r="J4" s="410"/>
+      <c r="K4" s="410"/>
+      <c r="L4" s="410" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="407"/>
-      <c r="N4" s="407"/>
-      <c r="O4" s="407" t="s">
+      <c r="M4" s="410"/>
+      <c r="N4" s="410"/>
+      <c r="O4" s="410" t="s">
         <v>84</v>
       </c>
-      <c r="P4" s="407"/>
-      <c r="Q4" s="407"/>
-      <c r="R4" s="407" t="s">
+      <c r="P4" s="410"/>
+      <c r="Q4" s="410"/>
+      <c r="R4" s="410" t="s">
         <v>86</v>
       </c>
-      <c r="S4" s="407"/>
-      <c r="T4" s="407"/>
-      <c r="U4" s="407" t="s">
+      <c r="S4" s="410"/>
+      <c r="T4" s="410"/>
+      <c r="U4" s="410" t="s">
         <v>85</v>
       </c>
-      <c r="V4" s="407"/>
-      <c r="W4" s="407"/>
-      <c r="X4" s="417" t="s">
+      <c r="V4" s="410"/>
+      <c r="W4" s="410"/>
+      <c r="X4" s="420" t="s">
         <v>87</v>
       </c>
       <c r="Y4" s="138"/>
@@ -12942,7 +12939,7 @@
       <c r="W5" s="172" t="s">
         <v>81</v>
       </c>
-      <c r="X5" s="417"/>
+      <c r="X5" s="420"/>
       <c r="Y5" s="138"/>
       <c r="Z5" s="138"/>
       <c r="AA5" s="138"/>
@@ -12955,41 +12952,27 @@
       <c r="B6" s="141">
         <v>34</v>
       </c>
-      <c r="C6" s="324">
-        <v>100</v>
-      </c>
-      <c r="D6" s="325"/>
-      <c r="E6" s="326">
-        <v>100</v>
-      </c>
-      <c r="F6" s="324">
-        <v>100</v>
-      </c>
-      <c r="G6" s="325">
-        <v>50</v>
-      </c>
-      <c r="H6" s="327">
-        <v>50</v>
-      </c>
-      <c r="I6" s="328">
-        <v>500</v>
-      </c>
-      <c r="J6" s="329">
-        <v>500</v>
-      </c>
-      <c r="K6" s="330"/>
-      <c r="L6" s="310"/>
-      <c r="M6" s="311"/>
-      <c r="N6" s="312"/>
-      <c r="O6" s="310"/>
-      <c r="P6" s="311"/>
-      <c r="Q6" s="312"/>
-      <c r="R6" s="310"/>
-      <c r="S6" s="311"/>
-      <c r="T6" s="312"/>
-      <c r="U6" s="310"/>
-      <c r="V6" s="311"/>
-      <c r="W6" s="313"/>
+      <c r="C6" s="322"/>
+      <c r="D6" s="323"/>
+      <c r="E6" s="324"/>
+      <c r="F6" s="322"/>
+      <c r="G6" s="323"/>
+      <c r="H6" s="325"/>
+      <c r="I6" s="326"/>
+      <c r="J6" s="327"/>
+      <c r="K6" s="328"/>
+      <c r="L6" s="308"/>
+      <c r="M6" s="309"/>
+      <c r="N6" s="310"/>
+      <c r="O6" s="308"/>
+      <c r="P6" s="309"/>
+      <c r="Q6" s="310"/>
+      <c r="R6" s="308"/>
+      <c r="S6" s="309"/>
+      <c r="T6" s="310"/>
+      <c r="U6" s="308"/>
+      <c r="V6" s="309"/>
+      <c r="W6" s="311"/>
       <c r="X6" s="169"/>
       <c r="Y6" s="138"/>
       <c r="Z6" s="138"/>
@@ -13003,31 +12986,27 @@
       <c r="B7" s="141">
         <v>35</v>
       </c>
-      <c r="C7" s="324"/>
-      <c r="D7" s="325"/>
-      <c r="E7" s="326"/>
-      <c r="F7" s="324"/>
-      <c r="G7" s="325"/>
-      <c r="H7" s="327"/>
-      <c r="I7" s="328">
-        <v>500</v>
-      </c>
-      <c r="J7" s="329">
-        <v>500</v>
-      </c>
-      <c r="K7" s="330"/>
-      <c r="L7" s="314"/>
-      <c r="M7" s="315"/>
-      <c r="N7" s="316"/>
-      <c r="O7" s="314"/>
-      <c r="P7" s="315"/>
-      <c r="Q7" s="316"/>
-      <c r="R7" s="314"/>
-      <c r="S7" s="315"/>
-      <c r="T7" s="316"/>
-      <c r="U7" s="314"/>
-      <c r="V7" s="315"/>
-      <c r="W7" s="317"/>
+      <c r="C7" s="322"/>
+      <c r="D7" s="323"/>
+      <c r="E7" s="324"/>
+      <c r="F7" s="322"/>
+      <c r="G7" s="323"/>
+      <c r="H7" s="325"/>
+      <c r="I7" s="326"/>
+      <c r="J7" s="327"/>
+      <c r="K7" s="328"/>
+      <c r="L7" s="312"/>
+      <c r="M7" s="313"/>
+      <c r="N7" s="314"/>
+      <c r="O7" s="312"/>
+      <c r="P7" s="313"/>
+      <c r="Q7" s="314"/>
+      <c r="R7" s="312"/>
+      <c r="S7" s="313"/>
+      <c r="T7" s="314"/>
+      <c r="U7" s="312"/>
+      <c r="V7" s="313"/>
+      <c r="W7" s="315"/>
       <c r="X7" s="142"/>
       <c r="Y7" s="138"/>
       <c r="Z7" s="138"/>
@@ -13041,39 +13020,27 @@
       <c r="B8" s="141">
         <v>36</v>
       </c>
-      <c r="C8" s="324">
-        <v>100</v>
-      </c>
-      <c r="D8" s="325">
-        <v>100</v>
-      </c>
-      <c r="E8" s="326"/>
-      <c r="F8" s="324">
-        <v>100</v>
-      </c>
-      <c r="G8" s="325">
-        <v>100</v>
-      </c>
-      <c r="H8" s="327"/>
-      <c r="I8" s="328">
-        <v>1000</v>
-      </c>
-      <c r="J8" s="329">
-        <v>1000</v>
-      </c>
-      <c r="K8" s="330"/>
-      <c r="L8" s="300"/>
-      <c r="M8" s="318"/>
-      <c r="N8" s="299"/>
-      <c r="O8" s="300"/>
-      <c r="P8" s="318"/>
-      <c r="Q8" s="299"/>
-      <c r="R8" s="300"/>
-      <c r="S8" s="318"/>
-      <c r="T8" s="299"/>
-      <c r="U8" s="300"/>
-      <c r="V8" s="318"/>
-      <c r="W8" s="319"/>
+      <c r="C8" s="322"/>
+      <c r="D8" s="323"/>
+      <c r="E8" s="324"/>
+      <c r="F8" s="322"/>
+      <c r="G8" s="323"/>
+      <c r="H8" s="325"/>
+      <c r="I8" s="326"/>
+      <c r="J8" s="327"/>
+      <c r="K8" s="328"/>
+      <c r="L8" s="298"/>
+      <c r="M8" s="316"/>
+      <c r="N8" s="297"/>
+      <c r="O8" s="298"/>
+      <c r="P8" s="316"/>
+      <c r="Q8" s="297"/>
+      <c r="R8" s="298"/>
+      <c r="S8" s="316"/>
+      <c r="T8" s="297"/>
+      <c r="U8" s="298"/>
+      <c r="V8" s="316"/>
+      <c r="W8" s="317"/>
       <c r="X8" s="143"/>
       <c r="Y8" s="138"/>
       <c r="Z8" s="138"/>
@@ -13087,39 +13054,27 @@
       <c r="B9" s="141">
         <v>37</v>
       </c>
-      <c r="C9" s="324">
-        <v>60</v>
-      </c>
-      <c r="D9" s="325"/>
-      <c r="E9" s="326">
-        <v>60</v>
-      </c>
-      <c r="F9" s="324">
-        <v>50</v>
-      </c>
-      <c r="G9" s="325">
-        <v>50</v>
-      </c>
-      <c r="H9" s="327"/>
-      <c r="I9" s="328">
-        <v>250</v>
-      </c>
-      <c r="J9" s="329">
-        <v>250</v>
-      </c>
-      <c r="K9" s="331"/>
-      <c r="L9" s="300"/>
-      <c r="M9" s="318"/>
-      <c r="N9" s="299"/>
-      <c r="O9" s="300"/>
-      <c r="P9" s="318"/>
-      <c r="Q9" s="299"/>
-      <c r="R9" s="300"/>
-      <c r="S9" s="318"/>
-      <c r="T9" s="299"/>
-      <c r="U9" s="300"/>
-      <c r="V9" s="318"/>
-      <c r="W9" s="319"/>
+      <c r="C9" s="322"/>
+      <c r="D9" s="323"/>
+      <c r="E9" s="324"/>
+      <c r="F9" s="322"/>
+      <c r="G9" s="323"/>
+      <c r="H9" s="325"/>
+      <c r="I9" s="326"/>
+      <c r="J9" s="327"/>
+      <c r="K9" s="329"/>
+      <c r="L9" s="298"/>
+      <c r="M9" s="316"/>
+      <c r="N9" s="297"/>
+      <c r="O9" s="298"/>
+      <c r="P9" s="316"/>
+      <c r="Q9" s="297"/>
+      <c r="R9" s="298"/>
+      <c r="S9" s="316"/>
+      <c r="T9" s="297"/>
+      <c r="U9" s="298"/>
+      <c r="V9" s="316"/>
+      <c r="W9" s="317"/>
       <c r="X9" s="143"/>
       <c r="Y9" s="138"/>
       <c r="Z9" s="138"/>
@@ -13133,27 +13088,27 @@
       <c r="B10" s="141">
         <v>38</v>
       </c>
-      <c r="C10" s="324"/>
-      <c r="D10" s="325"/>
-      <c r="E10" s="326"/>
-      <c r="F10" s="332"/>
-      <c r="G10" s="325"/>
-      <c r="H10" s="327"/>
-      <c r="I10" s="328"/>
-      <c r="J10" s="329"/>
-      <c r="K10" s="331"/>
-      <c r="L10" s="300"/>
-      <c r="M10" s="318"/>
-      <c r="N10" s="299"/>
-      <c r="O10" s="300"/>
-      <c r="P10" s="318"/>
-      <c r="Q10" s="299"/>
-      <c r="R10" s="300"/>
-      <c r="S10" s="318"/>
-      <c r="T10" s="299"/>
-      <c r="U10" s="300"/>
-      <c r="V10" s="318"/>
-      <c r="W10" s="319"/>
+      <c r="C10" s="322"/>
+      <c r="D10" s="323"/>
+      <c r="E10" s="324"/>
+      <c r="F10" s="330"/>
+      <c r="G10" s="323"/>
+      <c r="H10" s="325"/>
+      <c r="I10" s="326"/>
+      <c r="J10" s="327"/>
+      <c r="K10" s="329"/>
+      <c r="L10" s="298"/>
+      <c r="M10" s="316"/>
+      <c r="N10" s="297"/>
+      <c r="O10" s="298"/>
+      <c r="P10" s="316"/>
+      <c r="Q10" s="297"/>
+      <c r="R10" s="298"/>
+      <c r="S10" s="316"/>
+      <c r="T10" s="297"/>
+      <c r="U10" s="298"/>
+      <c r="V10" s="316"/>
+      <c r="W10" s="317"/>
       <c r="X10" s="143"/>
       <c r="Y10" s="138"/>
       <c r="Z10" s="138"/>
@@ -13167,27 +13122,27 @@
       <c r="B11" s="141">
         <v>39</v>
       </c>
-      <c r="C11" s="324"/>
-      <c r="D11" s="325"/>
-      <c r="E11" s="326"/>
-      <c r="F11" s="332"/>
-      <c r="G11" s="325"/>
-      <c r="H11" s="327"/>
-      <c r="I11" s="328"/>
-      <c r="J11" s="329"/>
-      <c r="K11" s="331"/>
-      <c r="L11" s="300"/>
-      <c r="M11" s="318"/>
-      <c r="N11" s="299"/>
-      <c r="O11" s="300"/>
-      <c r="P11" s="318"/>
-      <c r="Q11" s="299"/>
-      <c r="R11" s="300"/>
-      <c r="S11" s="318"/>
-      <c r="T11" s="299"/>
-      <c r="U11" s="300"/>
-      <c r="V11" s="318"/>
-      <c r="W11" s="319"/>
+      <c r="C11" s="322"/>
+      <c r="D11" s="323"/>
+      <c r="E11" s="324"/>
+      <c r="F11" s="330"/>
+      <c r="G11" s="323"/>
+      <c r="H11" s="325"/>
+      <c r="I11" s="326"/>
+      <c r="J11" s="327"/>
+      <c r="K11" s="329"/>
+      <c r="L11" s="298"/>
+      <c r="M11" s="316"/>
+      <c r="N11" s="297"/>
+      <c r="O11" s="298"/>
+      <c r="P11" s="316"/>
+      <c r="Q11" s="297"/>
+      <c r="R11" s="298"/>
+      <c r="S11" s="316"/>
+      <c r="T11" s="297"/>
+      <c r="U11" s="298"/>
+      <c r="V11" s="316"/>
+      <c r="W11" s="317"/>
       <c r="X11" s="143"/>
       <c r="Y11" s="138"/>
       <c r="Z11" s="138"/>
@@ -13201,27 +13156,27 @@
       <c r="B12" s="141">
         <v>40</v>
       </c>
-      <c r="C12" s="324"/>
-      <c r="D12" s="325"/>
-      <c r="E12" s="326"/>
-      <c r="F12" s="324"/>
-      <c r="G12" s="325"/>
-      <c r="H12" s="327"/>
-      <c r="I12" s="328"/>
-      <c r="J12" s="329"/>
-      <c r="K12" s="331"/>
-      <c r="L12" s="300"/>
-      <c r="M12" s="318"/>
-      <c r="N12" s="299"/>
-      <c r="O12" s="300"/>
-      <c r="P12" s="318"/>
-      <c r="Q12" s="299"/>
-      <c r="R12" s="300"/>
-      <c r="S12" s="318"/>
-      <c r="T12" s="299"/>
-      <c r="U12" s="300"/>
-      <c r="V12" s="318"/>
-      <c r="W12" s="319"/>
+      <c r="C12" s="322"/>
+      <c r="D12" s="323"/>
+      <c r="E12" s="324"/>
+      <c r="F12" s="322"/>
+      <c r="G12" s="323"/>
+      <c r="H12" s="325"/>
+      <c r="I12" s="326"/>
+      <c r="J12" s="327"/>
+      <c r="K12" s="329"/>
+      <c r="L12" s="298"/>
+      <c r="M12" s="316"/>
+      <c r="N12" s="297"/>
+      <c r="O12" s="298"/>
+      <c r="P12" s="316"/>
+      <c r="Q12" s="297"/>
+      <c r="R12" s="298"/>
+      <c r="S12" s="316"/>
+      <c r="T12" s="297"/>
+      <c r="U12" s="298"/>
+      <c r="V12" s="316"/>
+      <c r="W12" s="317"/>
       <c r="X12" s="143"/>
       <c r="Y12" s="138"/>
       <c r="Z12" s="138"/>
@@ -13235,27 +13190,27 @@
       <c r="B13" s="141">
         <v>41</v>
       </c>
-      <c r="C13" s="324"/>
-      <c r="D13" s="325"/>
-      <c r="E13" s="326"/>
-      <c r="F13" s="332"/>
-      <c r="G13" s="325"/>
-      <c r="H13" s="327"/>
-      <c r="I13" s="328"/>
-      <c r="J13" s="329"/>
-      <c r="K13" s="331"/>
-      <c r="L13" s="300"/>
-      <c r="M13" s="318"/>
-      <c r="N13" s="299"/>
-      <c r="O13" s="300"/>
-      <c r="P13" s="318"/>
-      <c r="Q13" s="299"/>
-      <c r="R13" s="300"/>
-      <c r="S13" s="318"/>
-      <c r="T13" s="299"/>
-      <c r="U13" s="300"/>
-      <c r="V13" s="318"/>
-      <c r="W13" s="319"/>
+      <c r="C13" s="322"/>
+      <c r="D13" s="323"/>
+      <c r="E13" s="324"/>
+      <c r="F13" s="330"/>
+      <c r="G13" s="323"/>
+      <c r="H13" s="325"/>
+      <c r="I13" s="326"/>
+      <c r="J13" s="327"/>
+      <c r="K13" s="329"/>
+      <c r="L13" s="298"/>
+      <c r="M13" s="316"/>
+      <c r="N13" s="297"/>
+      <c r="O13" s="298"/>
+      <c r="P13" s="316"/>
+      <c r="Q13" s="297"/>
+      <c r="R13" s="298"/>
+      <c r="S13" s="316"/>
+      <c r="T13" s="297"/>
+      <c r="U13" s="298"/>
+      <c r="V13" s="316"/>
+      <c r="W13" s="317"/>
       <c r="X13" s="143"/>
       <c r="Y13" s="138"/>
       <c r="Z13" s="138"/>
@@ -13269,27 +13224,27 @@
       <c r="B14" s="141">
         <v>42</v>
       </c>
-      <c r="C14" s="324"/>
-      <c r="D14" s="325"/>
-      <c r="E14" s="326"/>
-      <c r="F14" s="324"/>
-      <c r="G14" s="325"/>
-      <c r="H14" s="327"/>
-      <c r="I14" s="328"/>
-      <c r="J14" s="329"/>
-      <c r="K14" s="331"/>
-      <c r="L14" s="300"/>
-      <c r="M14" s="318"/>
-      <c r="N14" s="299"/>
-      <c r="O14" s="300"/>
-      <c r="P14" s="318"/>
-      <c r="Q14" s="299"/>
-      <c r="R14" s="300"/>
-      <c r="S14" s="318"/>
-      <c r="T14" s="299"/>
-      <c r="U14" s="300"/>
-      <c r="V14" s="318"/>
-      <c r="W14" s="319"/>
+      <c r="C14" s="322"/>
+      <c r="D14" s="323"/>
+      <c r="E14" s="324"/>
+      <c r="F14" s="322"/>
+      <c r="G14" s="323"/>
+      <c r="H14" s="325"/>
+      <c r="I14" s="326"/>
+      <c r="J14" s="327"/>
+      <c r="K14" s="329"/>
+      <c r="L14" s="298"/>
+      <c r="M14" s="316"/>
+      <c r="N14" s="297"/>
+      <c r="O14" s="298"/>
+      <c r="P14" s="316"/>
+      <c r="Q14" s="297"/>
+      <c r="R14" s="298"/>
+      <c r="S14" s="316"/>
+      <c r="T14" s="297"/>
+      <c r="U14" s="298"/>
+      <c r="V14" s="316"/>
+      <c r="W14" s="317"/>
       <c r="X14" s="143"/>
       <c r="Y14" s="138"/>
       <c r="Z14" s="138"/>
@@ -13303,27 +13258,27 @@
       <c r="B15" s="141">
         <v>43</v>
       </c>
-      <c r="C15" s="324"/>
-      <c r="D15" s="325"/>
-      <c r="E15" s="326"/>
-      <c r="F15" s="324"/>
-      <c r="G15" s="325"/>
-      <c r="H15" s="327"/>
-      <c r="I15" s="328"/>
-      <c r="J15" s="329"/>
-      <c r="K15" s="331"/>
-      <c r="L15" s="300"/>
-      <c r="M15" s="318"/>
-      <c r="N15" s="299"/>
-      <c r="O15" s="300"/>
-      <c r="P15" s="318"/>
-      <c r="Q15" s="299"/>
-      <c r="R15" s="300"/>
-      <c r="S15" s="318"/>
-      <c r="T15" s="299"/>
-      <c r="U15" s="300"/>
-      <c r="V15" s="318"/>
-      <c r="W15" s="319"/>
+      <c r="C15" s="322"/>
+      <c r="D15" s="323"/>
+      <c r="E15" s="324"/>
+      <c r="F15" s="322"/>
+      <c r="G15" s="323"/>
+      <c r="H15" s="325"/>
+      <c r="I15" s="326"/>
+      <c r="J15" s="327"/>
+      <c r="K15" s="329"/>
+      <c r="L15" s="298"/>
+      <c r="M15" s="316"/>
+      <c r="N15" s="297"/>
+      <c r="O15" s="298"/>
+      <c r="P15" s="316"/>
+      <c r="Q15" s="297"/>
+      <c r="R15" s="298"/>
+      <c r="S15" s="316"/>
+      <c r="T15" s="297"/>
+      <c r="U15" s="298"/>
+      <c r="V15" s="316"/>
+      <c r="W15" s="317"/>
       <c r="X15" s="143"/>
       <c r="Y15" s="138"/>
       <c r="Z15" s="138"/>
@@ -13337,31 +13292,27 @@
       <c r="B16" s="141">
         <v>44</v>
       </c>
-      <c r="C16" s="324"/>
-      <c r="D16" s="325"/>
-      <c r="E16" s="326"/>
-      <c r="F16" s="332"/>
-      <c r="G16" s="325"/>
-      <c r="H16" s="327"/>
-      <c r="I16" s="328">
-        <v>500</v>
-      </c>
-      <c r="J16" s="329">
-        <v>500</v>
-      </c>
-      <c r="K16" s="331"/>
-      <c r="L16" s="300"/>
-      <c r="M16" s="318"/>
-      <c r="N16" s="299"/>
-      <c r="O16" s="300"/>
-      <c r="P16" s="318"/>
-      <c r="Q16" s="299"/>
-      <c r="R16" s="300"/>
-      <c r="S16" s="318"/>
-      <c r="T16" s="299"/>
-      <c r="U16" s="300"/>
-      <c r="V16" s="318"/>
-      <c r="W16" s="319"/>
+      <c r="C16" s="322"/>
+      <c r="D16" s="323"/>
+      <c r="E16" s="324"/>
+      <c r="F16" s="330"/>
+      <c r="G16" s="323"/>
+      <c r="H16" s="325"/>
+      <c r="I16" s="326"/>
+      <c r="J16" s="327"/>
+      <c r="K16" s="329"/>
+      <c r="L16" s="298"/>
+      <c r="M16" s="316"/>
+      <c r="N16" s="297"/>
+      <c r="O16" s="298"/>
+      <c r="P16" s="316"/>
+      <c r="Q16" s="297"/>
+      <c r="R16" s="298"/>
+      <c r="S16" s="316"/>
+      <c r="T16" s="297"/>
+      <c r="U16" s="298"/>
+      <c r="V16" s="316"/>
+      <c r="W16" s="317"/>
       <c r="X16" s="143"/>
       <c r="Y16" s="138"/>
       <c r="Z16" s="138"/>
@@ -13375,27 +13326,27 @@
       <c r="B17" s="141">
         <v>45</v>
       </c>
-      <c r="C17" s="324"/>
-      <c r="D17" s="325"/>
-      <c r="E17" s="326"/>
-      <c r="F17" s="324"/>
-      <c r="G17" s="325"/>
-      <c r="H17" s="327"/>
-      <c r="I17" s="328"/>
-      <c r="J17" s="329"/>
-      <c r="K17" s="331"/>
-      <c r="L17" s="300"/>
-      <c r="M17" s="318"/>
-      <c r="N17" s="299"/>
-      <c r="O17" s="300"/>
-      <c r="P17" s="318"/>
-      <c r="Q17" s="299"/>
-      <c r="R17" s="300"/>
-      <c r="S17" s="318"/>
-      <c r="T17" s="299"/>
-      <c r="U17" s="300"/>
-      <c r="V17" s="318"/>
-      <c r="W17" s="319"/>
+      <c r="C17" s="322"/>
+      <c r="D17" s="323"/>
+      <c r="E17" s="324"/>
+      <c r="F17" s="322"/>
+      <c r="G17" s="323"/>
+      <c r="H17" s="325"/>
+      <c r="I17" s="326"/>
+      <c r="J17" s="327"/>
+      <c r="K17" s="329"/>
+      <c r="L17" s="298"/>
+      <c r="M17" s="316"/>
+      <c r="N17" s="297"/>
+      <c r="O17" s="298"/>
+      <c r="P17" s="316"/>
+      <c r="Q17" s="297"/>
+      <c r="R17" s="298"/>
+      <c r="S17" s="316"/>
+      <c r="T17" s="297"/>
+      <c r="U17" s="298"/>
+      <c r="V17" s="316"/>
+      <c r="W17" s="317"/>
       <c r="X17" s="143"/>
       <c r="Y17" s="138"/>
       <c r="Z17" s="138"/>
@@ -13409,27 +13360,27 @@
       <c r="B18" s="141">
         <v>46</v>
       </c>
-      <c r="C18" s="324"/>
-      <c r="D18" s="325"/>
-      <c r="E18" s="326"/>
-      <c r="F18" s="324"/>
-      <c r="G18" s="325"/>
-      <c r="H18" s="327"/>
-      <c r="I18" s="328"/>
-      <c r="J18" s="329"/>
-      <c r="K18" s="331"/>
-      <c r="L18" s="300"/>
-      <c r="M18" s="318"/>
-      <c r="N18" s="299"/>
-      <c r="O18" s="300"/>
-      <c r="P18" s="318"/>
-      <c r="Q18" s="299"/>
-      <c r="R18" s="300"/>
-      <c r="S18" s="318"/>
-      <c r="T18" s="299"/>
-      <c r="U18" s="300"/>
-      <c r="V18" s="318"/>
-      <c r="W18" s="319"/>
+      <c r="C18" s="322"/>
+      <c r="D18" s="323"/>
+      <c r="E18" s="324"/>
+      <c r="F18" s="322"/>
+      <c r="G18" s="323"/>
+      <c r="H18" s="325"/>
+      <c r="I18" s="326"/>
+      <c r="J18" s="327"/>
+      <c r="K18" s="329"/>
+      <c r="L18" s="298"/>
+      <c r="M18" s="316"/>
+      <c r="N18" s="297"/>
+      <c r="O18" s="298"/>
+      <c r="P18" s="316"/>
+      <c r="Q18" s="297"/>
+      <c r="R18" s="298"/>
+      <c r="S18" s="316"/>
+      <c r="T18" s="297"/>
+      <c r="U18" s="298"/>
+      <c r="V18" s="316"/>
+      <c r="W18" s="317"/>
       <c r="X18" s="143"/>
       <c r="Y18" s="138"/>
       <c r="Z18" s="138"/>
@@ -13443,27 +13394,27 @@
       <c r="B19" s="141">
         <v>47</v>
       </c>
-      <c r="C19" s="324"/>
-      <c r="D19" s="325"/>
-      <c r="E19" s="326"/>
-      <c r="F19" s="324"/>
-      <c r="G19" s="325"/>
-      <c r="H19" s="327"/>
-      <c r="I19" s="328"/>
-      <c r="J19" s="329"/>
-      <c r="K19" s="331"/>
-      <c r="L19" s="300"/>
-      <c r="M19" s="318"/>
-      <c r="N19" s="299"/>
-      <c r="O19" s="300"/>
-      <c r="P19" s="318"/>
-      <c r="Q19" s="299"/>
-      <c r="R19" s="300"/>
-      <c r="S19" s="318"/>
-      <c r="T19" s="299"/>
-      <c r="U19" s="300"/>
-      <c r="V19" s="318"/>
-      <c r="W19" s="319"/>
+      <c r="C19" s="322"/>
+      <c r="D19" s="323"/>
+      <c r="E19" s="324"/>
+      <c r="F19" s="322"/>
+      <c r="G19" s="323"/>
+      <c r="H19" s="325"/>
+      <c r="I19" s="326"/>
+      <c r="J19" s="327"/>
+      <c r="K19" s="329"/>
+      <c r="L19" s="298"/>
+      <c r="M19" s="316"/>
+      <c r="N19" s="297"/>
+      <c r="O19" s="298"/>
+      <c r="P19" s="316"/>
+      <c r="Q19" s="297"/>
+      <c r="R19" s="298"/>
+      <c r="S19" s="316"/>
+      <c r="T19" s="297"/>
+      <c r="U19" s="298"/>
+      <c r="V19" s="316"/>
+      <c r="W19" s="317"/>
       <c r="X19" s="143"/>
       <c r="Y19" s="138"/>
       <c r="Z19" s="138"/>
@@ -13477,27 +13428,27 @@
       <c r="B20" s="141">
         <v>48</v>
       </c>
-      <c r="C20" s="324"/>
-      <c r="D20" s="325"/>
-      <c r="E20" s="326"/>
-      <c r="F20" s="332"/>
-      <c r="G20" s="325"/>
-      <c r="H20" s="327"/>
-      <c r="I20" s="328"/>
-      <c r="J20" s="329"/>
-      <c r="K20" s="331"/>
-      <c r="L20" s="300"/>
-      <c r="M20" s="318"/>
-      <c r="N20" s="299"/>
-      <c r="O20" s="300"/>
-      <c r="P20" s="318"/>
-      <c r="Q20" s="299"/>
-      <c r="R20" s="300"/>
-      <c r="S20" s="318"/>
-      <c r="T20" s="299"/>
-      <c r="U20" s="300"/>
-      <c r="V20" s="318"/>
-      <c r="W20" s="319"/>
+      <c r="C20" s="322"/>
+      <c r="D20" s="323"/>
+      <c r="E20" s="324"/>
+      <c r="F20" s="330"/>
+      <c r="G20" s="323"/>
+      <c r="H20" s="325"/>
+      <c r="I20" s="326"/>
+      <c r="J20" s="327"/>
+      <c r="K20" s="329"/>
+      <c r="L20" s="298"/>
+      <c r="M20" s="316"/>
+      <c r="N20" s="297"/>
+      <c r="O20" s="298"/>
+      <c r="P20" s="316"/>
+      <c r="Q20" s="297"/>
+      <c r="R20" s="298"/>
+      <c r="S20" s="316"/>
+      <c r="T20" s="297"/>
+      <c r="U20" s="298"/>
+      <c r="V20" s="316"/>
+      <c r="W20" s="317"/>
       <c r="X20" s="143"/>
       <c r="Y20" s="138"/>
       <c r="Z20" s="138"/>
@@ -13511,47 +13462,27 @@
       <c r="B21" s="141">
         <v>49</v>
       </c>
-      <c r="C21" s="324">
-        <v>40</v>
-      </c>
-      <c r="D21" s="325">
-        <v>40</v>
-      </c>
-      <c r="E21" s="326"/>
-      <c r="F21" s="332">
-        <v>100</v>
-      </c>
-      <c r="G21" s="325">
-        <v>20</v>
-      </c>
-      <c r="H21" s="327">
-        <v>80</v>
-      </c>
-      <c r="I21" s="328">
-        <v>1000</v>
-      </c>
-      <c r="J21" s="329">
-        <v>600</v>
-      </c>
-      <c r="K21" s="433">
-        <v>400</v>
-      </c>
-      <c r="L21" s="300">
-        <v>250</v>
-      </c>
-      <c r="M21" s="318"/>
-      <c r="N21" s="299">
-        <v>250</v>
-      </c>
-      <c r="O21" s="300"/>
-      <c r="P21" s="318"/>
-      <c r="Q21" s="299"/>
-      <c r="R21" s="300"/>
-      <c r="S21" s="318"/>
-      <c r="T21" s="299"/>
-      <c r="U21" s="300"/>
-      <c r="V21" s="318"/>
-      <c r="W21" s="319"/>
+      <c r="C21" s="322"/>
+      <c r="D21" s="323"/>
+      <c r="E21" s="324"/>
+      <c r="F21" s="330"/>
+      <c r="G21" s="323"/>
+      <c r="H21" s="325"/>
+      <c r="I21" s="326"/>
+      <c r="J21" s="327"/>
+      <c r="K21" s="342"/>
+      <c r="L21" s="298"/>
+      <c r="M21" s="316"/>
+      <c r="N21" s="297"/>
+      <c r="O21" s="298"/>
+      <c r="P21" s="316"/>
+      <c r="Q21" s="297"/>
+      <c r="R21" s="298"/>
+      <c r="S21" s="316"/>
+      <c r="T21" s="297"/>
+      <c r="U21" s="298"/>
+      <c r="V21" s="316"/>
+      <c r="W21" s="317"/>
       <c r="X21" s="143"/>
       <c r="Y21" s="138"/>
       <c r="Z21" s="138"/>
@@ -13565,27 +13496,27 @@
       <c r="B22" s="141">
         <v>50</v>
       </c>
-      <c r="C22" s="324"/>
-      <c r="D22" s="325"/>
-      <c r="E22" s="326"/>
-      <c r="F22" s="324"/>
-      <c r="G22" s="325"/>
-      <c r="H22" s="327"/>
-      <c r="I22" s="328"/>
-      <c r="J22" s="329"/>
-      <c r="K22" s="331"/>
-      <c r="L22" s="300"/>
-      <c r="M22" s="318"/>
-      <c r="N22" s="299"/>
-      <c r="O22" s="300"/>
-      <c r="P22" s="318"/>
-      <c r="Q22" s="299"/>
-      <c r="R22" s="300"/>
-      <c r="S22" s="318"/>
-      <c r="T22" s="299"/>
-      <c r="U22" s="300"/>
-      <c r="V22" s="318"/>
-      <c r="W22" s="319"/>
+      <c r="C22" s="322"/>
+      <c r="D22" s="323"/>
+      <c r="E22" s="324"/>
+      <c r="F22" s="322"/>
+      <c r="G22" s="323"/>
+      <c r="H22" s="325"/>
+      <c r="I22" s="326"/>
+      <c r="J22" s="327"/>
+      <c r="K22" s="329"/>
+      <c r="L22" s="298"/>
+      <c r="M22" s="316"/>
+      <c r="N22" s="297"/>
+      <c r="O22" s="298"/>
+      <c r="P22" s="316"/>
+      <c r="Q22" s="297"/>
+      <c r="R22" s="298"/>
+      <c r="S22" s="316"/>
+      <c r="T22" s="297"/>
+      <c r="U22" s="298"/>
+      <c r="V22" s="316"/>
+      <c r="W22" s="317"/>
       <c r="X22" s="143"/>
       <c r="Y22" s="138"/>
       <c r="Z22" s="138"/>
@@ -13599,27 +13530,27 @@
       <c r="B23" s="141">
         <v>51</v>
       </c>
-      <c r="C23" s="324"/>
-      <c r="D23" s="325"/>
-      <c r="E23" s="326"/>
-      <c r="F23" s="332"/>
-      <c r="G23" s="325"/>
-      <c r="H23" s="327"/>
-      <c r="I23" s="328"/>
-      <c r="J23" s="329"/>
-      <c r="K23" s="331"/>
-      <c r="L23" s="300"/>
-      <c r="M23" s="318"/>
-      <c r="N23" s="299"/>
-      <c r="O23" s="300"/>
-      <c r="P23" s="318"/>
-      <c r="Q23" s="299"/>
-      <c r="R23" s="300"/>
-      <c r="S23" s="318"/>
-      <c r="T23" s="299"/>
-      <c r="U23" s="300"/>
-      <c r="V23" s="318"/>
-      <c r="W23" s="319"/>
+      <c r="C23" s="322"/>
+      <c r="D23" s="323"/>
+      <c r="E23" s="324"/>
+      <c r="F23" s="330"/>
+      <c r="G23" s="323"/>
+      <c r="H23" s="325"/>
+      <c r="I23" s="326"/>
+      <c r="J23" s="327"/>
+      <c r="K23" s="329"/>
+      <c r="L23" s="298"/>
+      <c r="M23" s="316"/>
+      <c r="N23" s="297"/>
+      <c r="O23" s="298"/>
+      <c r="P23" s="316"/>
+      <c r="Q23" s="297"/>
+      <c r="R23" s="298"/>
+      <c r="S23" s="316"/>
+      <c r="T23" s="297"/>
+      <c r="U23" s="298"/>
+      <c r="V23" s="316"/>
+      <c r="W23" s="317"/>
       <c r="X23" s="143"/>
       <c r="Y23" s="138"/>
       <c r="Z23" s="138"/>
@@ -13633,27 +13564,27 @@
       <c r="B24" s="141">
         <v>52</v>
       </c>
-      <c r="C24" s="324"/>
-      <c r="D24" s="333"/>
-      <c r="E24" s="334"/>
-      <c r="F24" s="335"/>
-      <c r="G24" s="325"/>
-      <c r="H24" s="327"/>
-      <c r="I24" s="328"/>
-      <c r="J24" s="329"/>
-      <c r="K24" s="331"/>
-      <c r="L24" s="300"/>
-      <c r="M24" s="318"/>
-      <c r="N24" s="299"/>
-      <c r="O24" s="300"/>
-      <c r="P24" s="318"/>
-      <c r="Q24" s="299"/>
-      <c r="R24" s="300"/>
-      <c r="S24" s="318"/>
-      <c r="T24" s="299"/>
-      <c r="U24" s="300"/>
-      <c r="V24" s="318"/>
-      <c r="W24" s="319"/>
+      <c r="C24" s="322"/>
+      <c r="D24" s="331"/>
+      <c r="E24" s="332"/>
+      <c r="F24" s="333"/>
+      <c r="G24" s="323"/>
+      <c r="H24" s="325"/>
+      <c r="I24" s="326"/>
+      <c r="J24" s="327"/>
+      <c r="K24" s="329"/>
+      <c r="L24" s="298"/>
+      <c r="M24" s="316"/>
+      <c r="N24" s="297"/>
+      <c r="O24" s="298"/>
+      <c r="P24" s="316"/>
+      <c r="Q24" s="297"/>
+      <c r="R24" s="298"/>
+      <c r="S24" s="316"/>
+      <c r="T24" s="297"/>
+      <c r="U24" s="298"/>
+      <c r="V24" s="316"/>
+      <c r="W24" s="317"/>
       <c r="X24" s="143"/>
       <c r="Y24" s="138"/>
       <c r="Z24" s="138"/>
@@ -13667,27 +13598,27 @@
       <c r="B25" s="141">
         <v>53</v>
       </c>
-      <c r="C25" s="324"/>
-      <c r="D25" s="333"/>
-      <c r="E25" s="334"/>
-      <c r="F25" s="335"/>
-      <c r="G25" s="325"/>
-      <c r="H25" s="327"/>
-      <c r="I25" s="328"/>
-      <c r="J25" s="329"/>
-      <c r="K25" s="331"/>
-      <c r="L25" s="300"/>
-      <c r="M25" s="318"/>
-      <c r="N25" s="299"/>
-      <c r="O25" s="300"/>
-      <c r="P25" s="318"/>
-      <c r="Q25" s="299"/>
-      <c r="R25" s="300"/>
-      <c r="S25" s="318"/>
-      <c r="T25" s="299"/>
-      <c r="U25" s="300"/>
-      <c r="V25" s="318"/>
-      <c r="W25" s="319"/>
+      <c r="C25" s="322"/>
+      <c r="D25" s="331"/>
+      <c r="E25" s="332"/>
+      <c r="F25" s="333"/>
+      <c r="G25" s="323"/>
+      <c r="H25" s="325"/>
+      <c r="I25" s="326"/>
+      <c r="J25" s="327"/>
+      <c r="K25" s="329"/>
+      <c r="L25" s="298"/>
+      <c r="M25" s="316"/>
+      <c r="N25" s="297"/>
+      <c r="O25" s="298"/>
+      <c r="P25" s="316"/>
+      <c r="Q25" s="297"/>
+      <c r="R25" s="298"/>
+      <c r="S25" s="316"/>
+      <c r="T25" s="297"/>
+      <c r="U25" s="298"/>
+      <c r="V25" s="316"/>
+      <c r="W25" s="317"/>
       <c r="X25" s="143"/>
       <c r="Y25" s="138"/>
       <c r="Z25" s="138"/>
@@ -13701,27 +13632,27 @@
       <c r="B26" s="144">
         <v>54</v>
       </c>
-      <c r="C26" s="336"/>
-      <c r="D26" s="337"/>
-      <c r="E26" s="338"/>
-      <c r="F26" s="336"/>
-      <c r="G26" s="339"/>
-      <c r="H26" s="340"/>
-      <c r="I26" s="341"/>
-      <c r="J26" s="342"/>
-      <c r="K26" s="343"/>
-      <c r="L26" s="300"/>
-      <c r="M26" s="318"/>
-      <c r="N26" s="299"/>
-      <c r="O26" s="320"/>
-      <c r="P26" s="321"/>
-      <c r="Q26" s="322"/>
-      <c r="R26" s="300"/>
-      <c r="S26" s="318"/>
-      <c r="T26" s="299"/>
-      <c r="U26" s="300"/>
-      <c r="V26" s="318"/>
-      <c r="W26" s="319"/>
+      <c r="C26" s="334"/>
+      <c r="D26" s="335"/>
+      <c r="E26" s="336"/>
+      <c r="F26" s="334"/>
+      <c r="G26" s="337"/>
+      <c r="H26" s="338"/>
+      <c r="I26" s="339"/>
+      <c r="J26" s="340"/>
+      <c r="K26" s="341"/>
+      <c r="L26" s="298"/>
+      <c r="M26" s="316"/>
+      <c r="N26" s="297"/>
+      <c r="O26" s="318"/>
+      <c r="P26" s="319"/>
+      <c r="Q26" s="320"/>
+      <c r="R26" s="298"/>
+      <c r="S26" s="316"/>
+      <c r="T26" s="297"/>
+      <c r="U26" s="298"/>
+      <c r="V26" s="316"/>
+      <c r="W26" s="317"/>
       <c r="X26" s="143"/>
       <c r="Y26" s="138"/>
       <c r="Z26" s="138"/>
@@ -13735,87 +13666,87 @@
       <c r="B27" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="323">
+      <c r="C27" s="321">
         <f>SUM(C6:C26)</f>
-        <v>300</v>
-      </c>
-      <c r="D27" s="323">
+        <v>0</v>
+      </c>
+      <c r="D27" s="321">
         <f t="shared" ref="D27:W27" si="0">SUM(D6:D26)</f>
-        <v>140</v>
-      </c>
-      <c r="E27" s="323">
+        <v>0</v>
+      </c>
+      <c r="E27" s="321">
         <f>C27-D27</f>
-        <v>160</v>
-      </c>
-      <c r="F27" s="323">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="G27" s="323">
-        <f t="shared" si="0"/>
-        <v>220</v>
-      </c>
-      <c r="H27" s="323">
-        <f>F27-G27</f>
-        <v>130</v>
-      </c>
-      <c r="I27" s="323">
-        <f t="shared" si="0"/>
-        <v>3750</v>
-      </c>
-      <c r="J27" s="323">
-        <f t="shared" si="0"/>
-        <v>3350</v>
-      </c>
-      <c r="K27" s="323">
-        <f>I27-J27</f>
-        <v>400</v>
-      </c>
-      <c r="L27" s="323">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="M27" s="323">
+        <v>0</v>
+      </c>
+      <c r="F27" s="321">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N27" s="323">
-        <f>L27-M27</f>
-        <v>250</v>
-      </c>
-      <c r="O27" s="323">
+      <c r="G27" s="321">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P27" s="323">
+      <c r="H27" s="321">
+        <f>F27-G27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="321">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="323">
+      <c r="J27" s="321">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R27" s="323">
+      <c r="K27" s="321">
+        <f>I27-J27</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="321">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S27" s="323">
+      <c r="M27" s="321">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T27" s="323">
+      <c r="N27" s="321">
+        <f>L27-M27</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="321">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U27" s="323">
+      <c r="P27" s="321">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V27" s="323">
+      <c r="Q27" s="321">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W27" s="323">
+      <c r="R27" s="321">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="321">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="321">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="321">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="321">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="321">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14199,94 +14130,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="397" t="s">
+      <c r="A1" s="400" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="397"/>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="397"/>
-      <c r="H1" s="397"/>
-      <c r="I1" s="397"/>
-      <c r="J1" s="397"/>
-      <c r="K1" s="397"/>
-      <c r="L1" s="397"/>
-      <c r="M1" s="397"/>
-      <c r="N1" s="397"/>
-      <c r="O1" s="397"/>
-      <c r="P1" s="397"/>
-      <c r="Q1" s="397"/>
-      <c r="R1" s="397"/>
-      <c r="S1" s="397"/>
+      <c r="B1" s="400"/>
+      <c r="C1" s="400"/>
+      <c r="D1" s="400"/>
+      <c r="E1" s="400"/>
+      <c r="F1" s="400"/>
+      <c r="G1" s="400"/>
+      <c r="H1" s="400"/>
+      <c r="I1" s="400"/>
+      <c r="J1" s="400"/>
+      <c r="K1" s="400"/>
+      <c r="L1" s="400"/>
+      <c r="M1" s="400"/>
+      <c r="N1" s="400"/>
+      <c r="O1" s="400"/>
+      <c r="P1" s="400"/>
+      <c r="Q1" s="400"/>
+      <c r="R1" s="400"/>
+      <c r="S1" s="400"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="397"/>
-      <c r="B2" s="397"/>
-      <c r="C2" s="397"/>
-      <c r="D2" s="397"/>
-      <c r="E2" s="397"/>
-      <c r="F2" s="397"/>
-      <c r="G2" s="397"/>
-      <c r="H2" s="397"/>
-      <c r="I2" s="397"/>
-      <c r="J2" s="397"/>
-      <c r="K2" s="397"/>
-      <c r="L2" s="397"/>
-      <c r="M2" s="397"/>
-      <c r="N2" s="397"/>
-      <c r="O2" s="397"/>
-      <c r="P2" s="397"/>
-      <c r="Q2" s="397"/>
-      <c r="R2" s="397"/>
-      <c r="S2" s="397"/>
+      <c r="A2" s="400"/>
+      <c r="B2" s="400"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="400"/>
+      <c r="H2" s="400"/>
+      <c r="I2" s="400"/>
+      <c r="J2" s="400"/>
+      <c r="K2" s="400"/>
+      <c r="L2" s="400"/>
+      <c r="M2" s="400"/>
+      <c r="N2" s="400"/>
+      <c r="O2" s="400"/>
+      <c r="P2" s="400"/>
+      <c r="Q2" s="400"/>
+      <c r="R2" s="400"/>
+      <c r="S2" s="400"/>
     </row>
     <row r="3" spans="1:40" s="96" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="398" t="s">
+      <c r="A3" s="401" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="398"/>
-      <c r="C3" s="398"/>
-      <c r="D3" s="398"/>
-      <c r="E3" s="398"/>
-      <c r="F3" s="398"/>
-      <c r="G3" s="398"/>
-      <c r="H3" s="398"/>
-      <c r="I3" s="398"/>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
-      <c r="L3" s="398"/>
-      <c r="M3" s="398"/>
-      <c r="N3" s="398"/>
-      <c r="O3" s="398"/>
-      <c r="P3" s="398"/>
-      <c r="Q3" s="398"/>
-      <c r="R3" s="398"/>
-      <c r="S3" s="398"/>
+      <c r="B3" s="401"/>
+      <c r="C3" s="401"/>
+      <c r="D3" s="401"/>
+      <c r="E3" s="401"/>
+      <c r="F3" s="401"/>
+      <c r="G3" s="401"/>
+      <c r="H3" s="401"/>
+      <c r="I3" s="401"/>
+      <c r="J3" s="401"/>
+      <c r="K3" s="401"/>
+      <c r="L3" s="401"/>
+      <c r="M3" s="401"/>
+      <c r="N3" s="401"/>
+      <c r="O3" s="401"/>
+      <c r="P3" s="401"/>
+      <c r="Q3" s="401"/>
+      <c r="R3" s="401"/>
+      <c r="S3" s="401"/>
     </row>
     <row r="4" spans="1:40" s="96" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="399" t="s">
+      <c r="A4" s="402" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="399"/>
-      <c r="C4" s="399"/>
-      <c r="D4" s="399"/>
-      <c r="E4" s="399"/>
-      <c r="F4" s="399"/>
-      <c r="G4" s="399"/>
-      <c r="H4" s="399"/>
-      <c r="I4" s="399"/>
-      <c r="J4" s="399"/>
-      <c r="K4" s="399"/>
-      <c r="L4" s="399"/>
-      <c r="M4" s="399"/>
-      <c r="N4" s="399"/>
-      <c r="O4" s="399"/>
-      <c r="P4" s="399"/>
-      <c r="Q4" s="399"/>
-      <c r="R4" s="399"/>
-      <c r="S4" s="399"/>
+      <c r="B4" s="402"/>
+      <c r="C4" s="402"/>
+      <c r="D4" s="402"/>
+      <c r="E4" s="402"/>
+      <c r="F4" s="402"/>
+      <c r="G4" s="402"/>
+      <c r="H4" s="402"/>
+      <c r="I4" s="402"/>
+      <c r="J4" s="402"/>
+      <c r="K4" s="402"/>
+      <c r="L4" s="402"/>
+      <c r="M4" s="402"/>
+      <c r="N4" s="402"/>
+      <c r="O4" s="402"/>
+      <c r="P4" s="402"/>
+      <c r="Q4" s="402"/>
+      <c r="R4" s="402"/>
+      <c r="S4" s="402"/>
     </row>
     <row r="5" spans="1:40" s="96" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="204"/>
@@ -14310,9 +14241,9 @@
       <c r="S5" s="202"/>
       <c r="T5" s="205"/>
       <c r="U5" s="205"/>
-      <c r="V5" s="399"/>
-      <c r="W5" s="399"/>
-      <c r="X5" s="399"/>
+      <c r="V5" s="402"/>
+      <c r="W5" s="402"/>
+      <c r="X5" s="402"/>
       <c r="Y5" s="205"/>
       <c r="Z5" s="205"/>
       <c r="AA5" s="205"/>
@@ -14332,31 +14263,31 @@
     </row>
     <row r="6" spans="1:40" s="97" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="203" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="203" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="203" t="s">
+      <c r="C6" s="203" t="s">
         <v>129</v>
-      </c>
-      <c r="C6" s="203" t="s">
-        <v>130</v>
       </c>
       <c r="D6" s="203"/>
       <c r="E6" s="203"/>
       <c r="F6" s="109" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="109" t="s">
         <v>131</v>
-      </c>
-      <c r="G6" s="109" t="s">
-        <v>132</v>
       </c>
       <c r="H6" s="207"/>
       <c r="I6" s="109" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J6" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="109" t="s">
         <v>133</v>
-      </c>
-      <c r="K6" s="109" t="s">
-        <v>134</v>
       </c>
       <c r="L6" s="206"/>
       <c r="M6" s="206"/>
@@ -14390,10 +14321,10 @@
     </row>
     <row r="7" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="98" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="111" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" s="98">
         <v>31581</v>
@@ -14408,7 +14339,7 @@
       </c>
       <c r="H7" s="200"/>
       <c r="I7" s="98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J7" s="98">
         <v>24639</v>
@@ -14449,10 +14380,10 @@
     </row>
     <row r="8" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="111" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="98">
         <v>27500</v>
@@ -14467,7 +14398,7 @@
       </c>
       <c r="H8" s="200"/>
       <c r="I8" s="98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J8" s="98">
         <v>37436</v>
@@ -14508,10 +14439,10 @@
     </row>
     <row r="9" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="98" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="98">
         <v>24260</v>
@@ -14526,7 +14457,7 @@
       </c>
       <c r="H9" s="200"/>
       <c r="I9" s="98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J9" s="98">
         <v>47368</v>
@@ -14567,10 +14498,10 @@
     </row>
     <row r="10" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="98">
         <v>15836</v>
@@ -14583,7 +14514,7 @@
       <c r="G10" s="98"/>
       <c r="H10" s="200"/>
       <c r="I10" s="98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J10" s="98">
         <v>45267</v>
@@ -14602,9 +14533,9 @@
       <c r="S10" s="200"/>
       <c r="T10" s="46"/>
       <c r="U10" s="46"/>
-      <c r="V10" s="419"/>
-      <c r="W10" s="419"/>
-      <c r="X10" s="419"/>
+      <c r="V10" s="422"/>
+      <c r="W10" s="422"/>
+      <c r="X10" s="422"/>
       <c r="Y10" s="46"/>
       <c r="Z10" s="46"/>
       <c r="AA10" s="46"/>
@@ -14624,10 +14555,10 @@
     </row>
     <row r="11" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="98"/>
       <c r="D11" s="99"/>
@@ -14638,7 +14569,7 @@
       </c>
       <c r="H11" s="200"/>
       <c r="I11" s="98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J11" s="98">
         <v>50042</v>
@@ -14679,10 +14610,10 @@
     </row>
     <row r="12" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="98" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="111" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12" s="98"/>
       <c r="D12" s="99"/>
@@ -14693,7 +14624,7 @@
       </c>
       <c r="H12" s="200"/>
       <c r="I12" s="98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J12" s="98">
         <v>49660</v>
@@ -14734,10 +14665,10 @@
     </row>
     <row r="13" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="98" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" s="111" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C13" s="98">
         <v>15120</v>
@@ -14750,7 +14681,7 @@
       </c>
       <c r="H13" s="200"/>
       <c r="I13" s="98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J13" s="98">
         <v>40874</v>
@@ -14769,9 +14700,9 @@
       <c r="S13" s="200"/>
       <c r="T13" s="46"/>
       <c r="U13" s="46"/>
-      <c r="V13" s="419"/>
-      <c r="W13" s="419"/>
-      <c r="X13" s="419"/>
+      <c r="V13" s="422"/>
+      <c r="W13" s="422"/>
+      <c r="X13" s="422"/>
       <c r="Y13" s="46"/>
       <c r="Z13" s="46"/>
       <c r="AA13" s="46"/>
@@ -14791,7 +14722,7 @@
     </row>
     <row r="14" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="111"/>
       <c r="C14" s="98">
@@ -14803,7 +14734,7 @@
       <c r="G14" s="98"/>
       <c r="H14" s="200"/>
       <c r="I14" s="98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J14" s="98">
         <v>15853</v>
@@ -14844,7 +14775,7 @@
     </row>
     <row r="15" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="98" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" s="111"/>
       <c r="C15" s="99"/>
@@ -14854,7 +14785,7 @@
       <c r="G15" s="98"/>
       <c r="H15" s="200"/>
       <c r="I15" s="98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J15" s="98">
         <v>79074</v>
@@ -14895,7 +14826,7 @@
     </row>
     <row r="16" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" s="111"/>
       <c r="C16" s="98"/>
@@ -14905,7 +14836,7 @@
       <c r="G16" s="98"/>
       <c r="H16" s="200"/>
       <c r="I16" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J16" s="98">
         <v>55963</v>
@@ -14954,7 +14885,7 @@
       <c r="G17" s="98"/>
       <c r="H17" s="200"/>
       <c r="I17" s="98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J17" s="98">
         <v>35144</v>
@@ -15003,7 +14934,7 @@
       <c r="G18" s="98"/>
       <c r="H18" s="200"/>
       <c r="I18" s="98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J18" s="98"/>
       <c r="K18" s="98">
@@ -15050,7 +14981,7 @@
       <c r="G19" s="98"/>
       <c r="H19" s="200"/>
       <c r="I19" s="98" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J19" s="98">
         <v>11460</v>
@@ -15101,7 +15032,7 @@
       <c r="G20" s="98"/>
       <c r="H20" s="200"/>
       <c r="I20" s="98" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J20" s="98">
         <v>39537</v>
@@ -15150,7 +15081,7 @@
       <c r="G21" s="200"/>
       <c r="H21" s="200"/>
       <c r="I21" s="98" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J21" s="98">
         <v>27122</v>
@@ -15199,7 +15130,7 @@
       <c r="G22" s="200"/>
       <c r="H22" s="200"/>
       <c r="I22" s="177" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J22" s="177">
         <v>90916</v>
@@ -15248,7 +15179,7 @@
       <c r="G23" s="200"/>
       <c r="H23" s="200"/>
       <c r="I23" s="177" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J23" s="177">
         <v>85186</v>
@@ -15459,9 +15390,9 @@
       <c r="AN27" s="46"/>
     </row>
     <row r="28" spans="1:40" s="103" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="420"/>
-      <c r="B28" s="420"/>
-      <c r="C28" s="420"/>
+      <c r="A28" s="423"/>
+      <c r="B28" s="423"/>
+      <c r="C28" s="423"/>
       <c r="D28" s="215"/>
       <c r="E28" s="215"/>
       <c r="F28" s="215"/>
@@ -16878,29 +16809,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="425" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="426"/>
-      <c r="C1" s="427"/>
-      <c r="D1" s="275"/>
-      <c r="F1" s="422" t="s">
+      <c r="A1" s="428" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="429"/>
+      <c r="C1" s="430"/>
+      <c r="D1" s="273"/>
+      <c r="F1" s="425" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="423"/>
-      <c r="H1" s="424"/>
+      <c r="G1" s="426"/>
+      <c r="H1" s="427"/>
     </row>
     <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="266" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="269" t="s">
+      <c r="C2" s="267" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="266"/>
+      <c r="D2" s="264"/>
       <c r="F2" s="94" t="s">
         <v>10</v>
       </c>
@@ -16912,405 +16843,405 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="270" t="s">
+      <c r="A3" s="268" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="261" t="s">
+      <c r="B3" s="259" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="271">
+      <c r="C3" s="269">
         <v>2050</v>
       </c>
-      <c r="D3" s="267"/>
+      <c r="D3" s="265"/>
       <c r="F3" s="94"/>
       <c r="G3" s="125"/>
       <c r="H3" s="124"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="270" t="s">
+      <c r="A4" s="268" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="261" t="s">
+      <c r="B4" s="259" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="271">
+      <c r="C4" s="269">
         <v>8585</v>
       </c>
-      <c r="D4" s="267"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="292"/>
+      <c r="D4" s="265"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="290"/>
       <c r="H4" s="126"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="270" t="s">
+      <c r="A5" s="268" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="261" t="s">
+      <c r="B5" s="259" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="271">
+      <c r="C5" s="269">
         <v>4250</v>
       </c>
-      <c r="D5" s="267"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="292"/>
+      <c r="D5" s="265"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="290"/>
       <c r="H5" s="126"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="270" t="s">
+      <c r="A6" s="268" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="261" t="s">
+      <c r="B6" s="259" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="271">
+      <c r="C6" s="269">
         <v>2500</v>
       </c>
-      <c r="D6" s="267"/>
+      <c r="D6" s="265"/>
       <c r="F6" s="94"/>
       <c r="G6" s="124"/>
       <c r="H6" s="125"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="270" t="s">
+      <c r="A7" s="268" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="261" t="s">
+      <c r="B7" s="259" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="271">
+      <c r="C7" s="269">
         <v>1260</v>
       </c>
-      <c r="D7" s="267"/>
+      <c r="D7" s="265"/>
       <c r="F7" s="94"/>
       <c r="G7" s="124"/>
       <c r="H7" s="125"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="270" t="s">
+      <c r="A8" s="268" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="261" t="s">
+      <c r="B8" s="259" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="271">
+      <c r="C8" s="269">
         <v>3152</v>
       </c>
-      <c r="D8" s="267"/>
+      <c r="D8" s="265"/>
       <c r="F8" s="94"/>
       <c r="G8" s="124"/>
       <c r="H8" s="125"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="270" t="s">
+      <c r="A9" s="268" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="261" t="s">
+      <c r="B9" s="259" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="271">
+      <c r="C9" s="269">
         <v>5023</v>
       </c>
-      <c r="D9" s="267"/>
+      <c r="D9" s="265"/>
       <c r="F9" s="94"/>
       <c r="G9" s="125"/>
       <c r="H9" s="125"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="270" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" s="262" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="271">
+      <c r="A10" s="268" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="260" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="269">
         <v>2000</v>
       </c>
-      <c r="D10" s="267"/>
+      <c r="D10" s="265"/>
       <c r="F10" s="94"/>
       <c r="G10" s="100"/>
       <c r="H10" s="124"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="272" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" s="261" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="271">
+      <c r="A11" s="270" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="259" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="269">
         <v>750</v>
       </c>
-      <c r="D11" s="267"/>
+      <c r="D11" s="265"/>
       <c r="F11" s="100"/>
       <c r="G11" s="127"/>
       <c r="H11" s="126"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="272" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="261" t="s">
+      <c r="A12" s="270" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="259" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="271">
+      <c r="C12" s="269">
         <v>2295</v>
       </c>
-      <c r="D12" s="267"/>
+      <c r="D12" s="265"/>
       <c r="F12" s="127"/>
-      <c r="G12" s="259"/>
-      <c r="H12" s="264"/>
+      <c r="G12" s="257"/>
+      <c r="H12" s="262"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="272" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="261" t="s">
+      <c r="A13" s="270" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="259" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="271">
+      <c r="C13" s="269">
         <v>2546</v>
       </c>
-      <c r="D13" s="267"/>
-      <c r="F13" s="259"/>
-      <c r="G13" s="259"/>
-      <c r="H13" s="259"/>
+      <c r="D13" s="265"/>
+      <c r="F13" s="257"/>
+      <c r="G13" s="257"/>
+      <c r="H13" s="257"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="272" t="s">
-        <v>180</v>
-      </c>
-      <c r="B14" s="261" t="s">
+      <c r="A14" s="270" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="259" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="271">
+      <c r="C14" s="269">
         <v>2673</v>
       </c>
-      <c r="D14" s="267"/>
-      <c r="F14" s="259"/>
-      <c r="G14" s="259"/>
-      <c r="H14" s="259"/>
+      <c r="D14" s="265"/>
+      <c r="F14" s="257"/>
+      <c r="G14" s="257"/>
+      <c r="H14" s="257"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="272" t="s">
-        <v>226</v>
-      </c>
-      <c r="B15" s="261" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="271">
+      <c r="A15" s="270" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="259" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="269">
         <v>1100</v>
       </c>
-      <c r="D15" s="267"/>
-      <c r="F15" s="259"/>
-      <c r="G15" s="259"/>
-      <c r="H15" s="265"/>
+      <c r="D15" s="265"/>
+      <c r="F15" s="257"/>
+      <c r="G15" s="257"/>
+      <c r="H15" s="263"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="273" t="s">
+      <c r="A16" s="271" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="259" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="269">
+        <v>5706</v>
+      </c>
+      <c r="D16" s="265"/>
+      <c r="F16" s="257"/>
+      <c r="G16" s="257"/>
+      <c r="H16" s="263"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="272" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="261" t="s">
+      <c r="B17" s="259" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="269">
+        <v>3600</v>
+      </c>
+      <c r="D17" s="265"/>
+      <c r="F17" s="258"/>
+      <c r="G17" s="257"/>
+      <c r="H17" s="257"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="272" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="261" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="269">
+        <v>2437</v>
+      </c>
+      <c r="D18" s="265"/>
+      <c r="F18" s="258"/>
+      <c r="G18" s="257"/>
+      <c r="H18" s="257"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="270" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="259" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="269">
+        <v>1167</v>
+      </c>
+      <c r="D19" s="265"/>
+      <c r="F19" s="258"/>
+      <c r="G19" s="257"/>
+      <c r="H19" s="257"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="270" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="259" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="271">
-        <v>5706</v>
-      </c>
-      <c r="D16" s="267"/>
-      <c r="F16" s="259"/>
-      <c r="G16" s="259"/>
-      <c r="H16" s="265"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="274" t="s">
-        <v>188</v>
-      </c>
-      <c r="B17" s="261" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="271">
-        <v>3600</v>
-      </c>
-      <c r="D17" s="267"/>
-      <c r="F17" s="260"/>
-      <c r="G17" s="259"/>
-      <c r="H17" s="259"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="274" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" s="263" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="271">
-        <v>2437</v>
-      </c>
-      <c r="D18" s="267"/>
-      <c r="F18" s="260"/>
-      <c r="G18" s="259"/>
-      <c r="H18" s="259"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="272" t="s">
-        <v>192</v>
-      </c>
-      <c r="B19" s="261" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" s="271">
-        <v>1167</v>
-      </c>
-      <c r="D19" s="267"/>
-      <c r="F19" s="260"/>
-      <c r="G19" s="259"/>
-      <c r="H19" s="259"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="272" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="261" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="271">
+      <c r="C20" s="269">
         <v>252</v>
       </c>
-      <c r="F20" s="259"/>
-      <c r="G20" s="259"/>
-      <c r="H20" s="259"/>
+      <c r="F20" s="257"/>
+      <c r="G20" s="257"/>
+      <c r="H20" s="257"/>
     </row>
     <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="272" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21" s="261" t="s">
+      <c r="A21" s="270" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="259" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="271">
+      <c r="C21" s="269">
         <v>21028</v>
       </c>
-      <c r="F21" s="259"/>
-      <c r="G21" s="259"/>
-      <c r="H21" s="259"/>
+      <c r="F21" s="257"/>
+      <c r="G21" s="257"/>
+      <c r="H21" s="257"/>
     </row>
     <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="261" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" s="261" t="s">
-        <v>224</v>
-      </c>
-      <c r="C22" s="261">
+      <c r="A22" s="259" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="259" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="259">
         <v>87287</v>
       </c>
-      <c r="F22" s="259"/>
-      <c r="G22" s="259"/>
-      <c r="H22" s="259"/>
+      <c r="F22" s="257"/>
+      <c r="G22" s="257"/>
+      <c r="H22" s="257"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="428" t="s">
+      <c r="A23" s="431" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="429"/>
-      <c r="C23" s="276">
+      <c r="B23" s="432"/>
+      <c r="C23" s="274">
         <f>SUM(C3:C22)</f>
         <v>159661</v>
       </c>
-      <c r="F23" s="259"/>
-      <c r="G23" s="259"/>
-      <c r="H23" s="259"/>
+      <c r="F23" s="257"/>
+      <c r="G23" s="257"/>
+      <c r="H23" s="257"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="93"/>
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
-      <c r="F24" s="259"/>
-      <c r="G24" s="259"/>
-      <c r="H24" s="259"/>
+      <c r="F24" s="257"/>
+      <c r="G24" s="257"/>
+      <c r="H24" s="257"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="93"/>
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
-      <c r="F25" s="259"/>
-      <c r="G25" s="259"/>
-      <c r="H25" s="259"/>
+      <c r="F25" s="257"/>
+      <c r="G25" s="257"/>
+      <c r="H25" s="257"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="93"/>
       <c r="B26" s="93"/>
       <c r="C26" s="93"/>
-      <c r="F26" s="259"/>
-      <c r="G26" s="259"/>
-      <c r="H26" s="259"/>
+      <c r="F26" s="257"/>
+      <c r="G26" s="257"/>
+      <c r="H26" s="257"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="93"/>
       <c r="B27" s="93"/>
       <c r="C27" s="93"/>
-      <c r="F27" s="259"/>
-      <c r="G27" s="259"/>
-      <c r="H27" s="259"/>
+      <c r="F27" s="257"/>
+      <c r="G27" s="257"/>
+      <c r="H27" s="257"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="93"/>
       <c r="B28" s="93"/>
       <c r="C28" s="93"/>
-      <c r="F28" s="259"/>
-      <c r="G28" s="259"/>
-      <c r="H28" s="259"/>
+      <c r="F28" s="257"/>
+      <c r="G28" s="257"/>
+      <c r="H28" s="257"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="93"/>
       <c r="B29" s="93"/>
       <c r="C29" s="93"/>
-      <c r="F29" s="259"/>
-      <c r="G29" s="259"/>
-      <c r="H29" s="259"/>
+      <c r="F29" s="257"/>
+      <c r="G29" s="257"/>
+      <c r="H29" s="257"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="93"/>
       <c r="B30" s="93"/>
       <c r="C30" s="93"/>
-      <c r="F30" s="259"/>
-      <c r="G30" s="259"/>
-      <c r="H30" s="259"/>
+      <c r="F30" s="257"/>
+      <c r="G30" s="257"/>
+      <c r="H30" s="257"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="93"/>
       <c r="B31" s="93"/>
       <c r="C31" s="93"/>
-      <c r="F31" s="259"/>
-      <c r="G31" s="290"/>
-      <c r="H31" s="259"/>
+      <c r="F31" s="257"/>
+      <c r="G31" s="288"/>
+      <c r="H31" s="257"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="255"/>
-      <c r="B32" s="256"/>
-      <c r="C32" s="255"/>
-      <c r="F32" s="290"/>
-      <c r="G32" s="279"/>
-      <c r="H32" s="280"/>
+      <c r="A32" s="253"/>
+      <c r="B32" s="254"/>
+      <c r="C32" s="253"/>
+      <c r="F32" s="288"/>
+      <c r="G32" s="277"/>
+      <c r="H32" s="278"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="255"/>
-      <c r="B33" s="256"/>
-      <c r="C33" s="255"/>
+      <c r="A33" s="253"/>
+      <c r="B33" s="254"/>
+      <c r="C33" s="253"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="278"/>
-      <c r="G33" s="279"/>
-      <c r="H33" s="278"/>
+      <c r="F33" s="276"/>
+      <c r="G33" s="277"/>
+      <c r="H33" s="276"/>
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="255"/>
-      <c r="B34" s="257"/>
-      <c r="C34" s="255"/>
+      <c r="A34" s="253"/>
+      <c r="B34" s="255"/>
+      <c r="C34" s="253"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="278"/>
-      <c r="G34" s="279"/>
-      <c r="H34" s="278"/>
+      <c r="F34" s="276"/>
+      <c r="G34" s="277"/>
+      <c r="H34" s="276"/>
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -17318,9 +17249,9 @@
       <c r="B35" s="93"/>
       <c r="C35" s="93"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="278"/>
-      <c r="G35" s="277"/>
-      <c r="H35" s="278"/>
+      <c r="F35" s="276"/>
+      <c r="G35" s="275"/>
+      <c r="H35" s="276"/>
       <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -17328,9 +17259,9 @@
       <c r="B36" s="93"/>
       <c r="C36" s="93"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="277"/>
-      <c r="G36" s="277"/>
-      <c r="H36" s="277"/>
+      <c r="F36" s="275"/>
+      <c r="G36" s="275"/>
+      <c r="H36" s="275"/>
       <c r="I36" s="9"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -17338,9 +17269,9 @@
       <c r="B37" s="93"/>
       <c r="C37" s="93"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="277"/>
-      <c r="G37" s="277"/>
-      <c r="H37" s="277"/>
+      <c r="F37" s="275"/>
+      <c r="G37" s="275"/>
+      <c r="H37" s="275"/>
       <c r="I37" s="9"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -17348,9 +17279,9 @@
       <c r="B38" s="93"/>
       <c r="C38" s="93"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="277"/>
-      <c r="G38" s="277"/>
-      <c r="H38" s="277"/>
+      <c r="F38" s="275"/>
+      <c r="G38" s="275"/>
+      <c r="H38" s="275"/>
       <c r="I38" s="9"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -17358,9 +17289,9 @@
       <c r="B39" s="93"/>
       <c r="C39" s="93"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="277"/>
-      <c r="G39" s="277"/>
-      <c r="H39" s="277"/>
+      <c r="F39" s="275"/>
+      <c r="G39" s="275"/>
+      <c r="H39" s="275"/>
       <c r="I39" s="9"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -17368,9 +17299,9 @@
       <c r="B40" s="93"/>
       <c r="C40" s="93"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="277"/>
-      <c r="G40" s="277"/>
-      <c r="H40" s="277"/>
+      <c r="F40" s="275"/>
+      <c r="G40" s="275"/>
+      <c r="H40" s="275"/>
       <c r="I40" s="9"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -17378,9 +17309,9 @@
       <c r="B41" s="93"/>
       <c r="C41" s="93"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="277"/>
-      <c r="G41" s="277"/>
-      <c r="H41" s="277"/>
+      <c r="F41" s="275"/>
+      <c r="G41" s="275"/>
+      <c r="H41" s="275"/>
       <c r="I41" s="9"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -17388,25 +17319,25 @@
       <c r="B42" s="93"/>
       <c r="C42" s="93"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="277"/>
-      <c r="G42" s="277"/>
-      <c r="H42" s="277"/>
+      <c r="F42" s="275"/>
+      <c r="G42" s="275"/>
+      <c r="H42" s="275"/>
       <c r="I42" s="9"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="421"/>
-      <c r="B43" s="421"/>
+      <c r="A43" s="424"/>
+      <c r="B43" s="424"/>
       <c r="C43" s="8"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="277"/>
-      <c r="G43" s="289"/>
-      <c r="H43" s="277"/>
+      <c r="F43" s="275"/>
+      <c r="G43" s="287"/>
+      <c r="H43" s="275"/>
       <c r="I43" s="9"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E44" s="9"/>
-      <c r="F44" s="289"/>
-      <c r="H44" s="277"/>
+      <c r="F44" s="287"/>
+      <c r="H44" s="275"/>
       <c r="I44" s="9"/>
     </row>
   </sheetData>
@@ -17433,263 +17364,263 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="282" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="282" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="282" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="282"/>
+    <col min="1" max="1" width="25.28515625" style="280" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="280" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="280" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="280"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="432" t="s">
+      <c r="A1" s="435" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="432"/>
-      <c r="C1" s="432"/>
+      <c r="B1" s="435"/>
+      <c r="C1" s="435"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="430" t="s">
+      <c r="A2" s="433" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="433"/>
+      <c r="C2" s="433"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="279" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="279" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="279" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="281" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="281" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="282">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="281" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="281" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="282">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="281" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="281" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="282">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="281" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="281" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="282">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="281" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="281" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="282">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="281" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="281" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="282">
+        <v>5706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="281" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="281" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="282">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="281" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="281" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="282">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="281" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="430"/>
-      <c r="C2" s="430"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="281" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="281" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="281" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="283" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="283" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="284">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="283" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="283" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="284">
-        <v>4250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="283" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="283" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="284">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="283" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="283" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="284">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="283" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="283" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="284">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="283" t="s">
+      <c r="B12" s="281" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="282">
+        <v>44185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="281" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="281" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="282">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="281" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="281" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="282">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="281" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="281" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="282">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="281" t="s">
         <v>187</v>
       </c>
-      <c r="B9" s="283" t="s">
+      <c r="B16" s="281" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="282">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="281" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="281" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="282">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="281" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="281" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="284">
-        <v>5706</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="283" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="283" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="284">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="283" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" s="283" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="284">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="283" t="s">
-        <v>203</v>
-      </c>
-      <c r="B12" s="283" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="284">
-        <v>44185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="283" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="283" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="284">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="283" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="283" t="s">
+      <c r="C18" s="282">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="281" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="281" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="282">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="281" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="281" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="284">
-        <v>3152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="283" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="283" t="s">
+      <c r="C20" s="282">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="281" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="281" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="284">
-        <v>5023</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="283" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" s="283" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="284">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="283" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="283" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="284">
-        <v>2437</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="283" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="283" t="s">
+      <c r="C21" s="282">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="281" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="281" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="284">
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="283" t="s">
-        <v>192</v>
-      </c>
-      <c r="B19" s="283" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" s="284">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="283" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="283" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="284">
-        <v>2546</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="283" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="283" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="284">
-        <v>2673</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="283" t="s">
-        <v>197</v>
-      </c>
-      <c r="B22" s="283" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="284">
+      <c r="C22" s="282">
         <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="283" t="s">
-        <v>201</v>
-      </c>
-      <c r="B23" s="283" t="s">
+      <c r="A23" s="281" t="s">
         <v>200</v>
       </c>
-      <c r="C23" s="284">
+      <c r="B23" s="281" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="282">
         <v>82130</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="431" t="s">
-        <v>199</v>
-      </c>
-      <c r="B24" s="431"/>
-      <c r="C24" s="285">
+      <c r="A24" s="434" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="434"/>
+      <c r="C24" s="283">
         <f>SUM(C4:C23)</f>
         <v>176366</v>
       </c>
